--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1629992.882340777</v>
+        <v>1595940.13690184</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>643285.8077172709</v>
+        <v>544669.6630124284</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6996667.357684178</v>
+        <v>6996667.357684175</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8027540.539975213</v>
+        <v>8027540.539975211</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>393.6617378500828</v>
       </c>
       <c r="G2" t="n">
         <v>411.5609956070679</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>245.8848125491621</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -758,7 +758,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I3" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>46.49806561112343</v>
       </c>
       <c r="S3" t="n">
-        <v>147.4755605575072</v>
+        <v>147.4755605575067</v>
       </c>
       <c r="T3" t="n">
         <v>185.9745311655613</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S4" t="n">
-        <v>208.5868485504649</v>
+        <v>2.818088400274653</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>229.7492224453519</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
         <v>411.5609956070679</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>325.5814052293738</v>
       </c>
       <c r="I5" t="n">
-        <v>78.42618713635639</v>
+        <v>32.76697694329526</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.73916953180444</v>
+        <v>65.73916953180481</v>
       </c>
       <c r="S5" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U5" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
@@ -992,10 +992,10 @@
         <v>127.2368531361802</v>
       </c>
       <c r="H6" t="n">
-        <v>96.9647737324037</v>
+        <v>96.96477373240373</v>
       </c>
       <c r="I6" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214984</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112362</v>
       </c>
       <c r="S6" t="n">
         <v>147.4755605575067</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3.500059287524966</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>218.5212637761711</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>357.0488247725433</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5609956070679</v>
+        <v>319.5783307894828</v>
       </c>
       <c r="H8" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.73916953180481</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>176.6529755334453</v>
       </c>
       <c r="T8" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>127.2368531361802</v>
       </c>
       <c r="H9" t="n">
-        <v>96.9647737324037</v>
+        <v>96.96477373240373</v>
       </c>
       <c r="I9" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214984</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112362</v>
       </c>
       <c r="S9" t="n">
         <v>147.4755605575067</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>68.03233967987684</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>16.19161309814519</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57.42829837535724</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>231.4959471810542</v>
       </c>
       <c r="G11" t="n">
         <v>411.5609956070679</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>176.6529755334452</v>
@@ -1429,10 +1429,10 @@
         <v>252.305926837283</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I12" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.34362796447564</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.053024110834542</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>125.8532215944585</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>276.7093654579433</v>
       </c>
       <c r="C14" t="n">
-        <v>6.377669619396055</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>369.0957251250487</v>
@@ -1618,13 +1618,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>411.5609956070679</v>
       </c>
       <c r="H14" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>156.363858050434</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>220.4433659829895</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I15" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>125.8532215944585</v>
       </c>
       <c r="V16" t="n">
-        <v>64.44569772400793</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>231.3774358810503</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>176.6529755334452</v>
@@ -1900,7 +1900,7 @@
         <v>220.4433659829895</v>
       </c>
       <c r="U17" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -1912,7 +1912,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>290.950093339565</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I18" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21.41344199965106</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>99.67218115413839</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>107.2566473623153</v>
       </c>
       <c r="G20" t="n">
-        <v>274.8785839646978</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S20" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
         <v>389.6064368699203</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>36.80144877863515</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>99.67218115413844</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,16 +2323,16 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>326.3997508091871</v>
       </c>
       <c r="G23" t="n">
-        <v>265.7523967272946</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>321.5391202560178</v>
@@ -2368,25 +2368,25 @@
         <v>40.94520556670595</v>
       </c>
       <c r="S23" t="n">
-        <v>167.65860777264</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7155395486319</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>25.09759010278277</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>154.6814885678763</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>132.2842255037309</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.3586235765045</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.2993344765234</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>38.05428022145338</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>365.1627711014023</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>18.55370937244284</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.166289397049</v>
       </c>
       <c r="H26" t="n">
-        <v>321.5391202560178</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>141.1469468886811</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>40.94520556670595</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7155395486319</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2743503404815</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -2620,7 +2620,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>389.6064368699203</v>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>41.13934392946371</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>112.5503427203749</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>132.3620546020535</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>284.2993344765234</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>72.04890840981876</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>161.5066198373301</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
         <v>411.166289397049</v>
       </c>
       <c r="H29" t="n">
-        <v>321.5391202560178</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>141.1469468886811</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.94520556670595</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7155395486319</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2743503404815</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.8821694259198</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>34.82607860242545</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>123.3117462647167</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>229.3586235765045</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.2993344765234</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>244.9123973224285</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>63.4314617140644</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>411.166289397049</v>
       </c>
       <c r="H32" t="n">
-        <v>321.5391202560178</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>141.1469468886811</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>40.94520556670595</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>252.2743503404815</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>141.4733865405994</v>
       </c>
       <c r="W32" t="n">
         <v>358.909580840975</v>
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.8821694259198</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>15.97245785885047</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>192.6384530795181</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.2993344765234</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>141.1469468886811</v>
+        <v>30.68506574075688</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>40.94520556670595</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>233.3959497528541</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>112.6281718186976</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>132.2842255037309</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3468,25 +3468,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>8.979749550312995</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>205.5013217243044</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>55.59821211842425</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>284.2993344765234</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.379290811345</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>411.166289397049</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>321.5391202560178</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>141.1469468886811</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.94520556670595</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>167.65860777264</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7155395486319</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2743503404815</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>222.877442342077</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>112.5503427203749</v>
       </c>
       <c r="H40" t="n">
-        <v>49.74778208223689</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>132.2842255037309</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>132.3620546020535</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.2993344765234</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>390.8378626949542</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.94520556670595</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>180.8068780700769</v>
       </c>
       <c r="V41" t="n">
-        <v>129.6755282192973</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3942,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.979749550312995</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>132.3620546020535</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>284.2993344765234</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>110.6106097464355</v>
+        <v>112.5503427203749</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
         <v>369.0957251250487</v>
@@ -3988,13 +3988,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>65.79578078919279</v>
       </c>
       <c r="G44" t="n">
         <v>411.166289397049</v>
       </c>
       <c r="H44" t="n">
-        <v>321.5391202560178</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>141.1469468886811</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.94520556670595</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>167.65860777264</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7155395486319</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>252.2743503404815</v>
@@ -4039,7 +4039,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>61.15925746245277</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.8821694259198</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>78.03022789650873</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>51.26897318214439</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.2993344765234</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1657.442764105007</v>
+        <v>1404.087263521806</v>
       </c>
       <c r="C2" t="n">
-        <v>1275.509005437814</v>
+        <v>1022.153504854613</v>
       </c>
       <c r="D2" t="n">
-        <v>1275.509005437814</v>
+        <v>1022.153504854613</v>
       </c>
       <c r="E2" t="n">
-        <v>880.7232855439211</v>
+        <v>1022.153504854613</v>
       </c>
       <c r="F2" t="n">
-        <v>466.5720948540913</v>
+        <v>624.5153858141257</v>
       </c>
       <c r="G2" t="n">
-        <v>50.85391747321462</v>
+        <v>208.797208433249</v>
       </c>
       <c r="H2" t="n">
-        <v>50.85391747321462</v>
+        <v>208.797208433249</v>
       </c>
       <c r="I2" t="n">
         <v>50.85391747321462</v>
@@ -4363,19 +4363,19 @@
         <v>2542.695873660731</v>
       </c>
       <c r="U2" t="n">
-        <v>2287.84140210792</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V2" t="n">
-        <v>2287.84140210792</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W2" t="n">
-        <v>2039.472904583514</v>
+        <v>2180.160943518332</v>
       </c>
       <c r="X2" t="n">
-        <v>1657.442764105007</v>
+        <v>1798.130803039825</v>
       </c>
       <c r="Y2" t="n">
-        <v>1657.442764105007</v>
+        <v>1798.130803039825</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C3" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D3" t="n">
         <v>620.3170860732707</v>
@@ -4397,7 +4397,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F3" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G3" t="n">
         <v>210.0732042050868</v>
@@ -4409,16 +4409,16 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J3" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K3" t="n">
-        <v>313.014426141483</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L3" t="n">
-        <v>722.7650590219088</v>
+        <v>477.85065097758</v>
       </c>
       <c r="M3" t="n">
-        <v>1207.798412532135</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N3" t="n">
         <v>1578.032071547365</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.85391747321462</v>
+        <v>556.2373262871192</v>
       </c>
       <c r="C4" t="n">
-        <v>50.85391747321462</v>
+        <v>556.2373262871192</v>
       </c>
       <c r="D4" t="n">
-        <v>50.85391747321462</v>
+        <v>403.1654331148819</v>
       </c>
       <c r="E4" t="n">
-        <v>50.85391747321462</v>
+        <v>251.1564188762008</v>
       </c>
       <c r="F4" t="n">
-        <v>50.85391747321462</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="G4" t="n">
-        <v>50.85391747321462</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="H4" t="n">
-        <v>50.85391747321462</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="I4" t="n">
-        <v>50.85391747321462</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="J4" t="n">
         <v>50.85391747321462</v>
@@ -4509,31 +4509,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q4" t="n">
-        <v>724.8700896544216</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="R4" t="n">
-        <v>724.8700896544216</v>
+        <v>559.0838802267906</v>
       </c>
       <c r="S4" t="n">
-        <v>514.1763032398105</v>
+        <v>556.2373262871192</v>
       </c>
       <c r="T4" t="n">
-        <v>514.1763032398105</v>
+        <v>556.2373262871192</v>
       </c>
       <c r="U4" t="n">
-        <v>514.1763032398105</v>
+        <v>556.2373262871192</v>
       </c>
       <c r="V4" t="n">
-        <v>514.1763032398105</v>
+        <v>556.2373262871192</v>
       </c>
       <c r="W4" t="n">
-        <v>282.1063815778389</v>
+        <v>556.2373262871192</v>
       </c>
       <c r="X4" t="n">
-        <v>50.85391747321462</v>
+        <v>556.2373262871192</v>
       </c>
       <c r="Y4" t="n">
-        <v>50.85391747321462</v>
+        <v>556.2373262871192</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555.9012523483213</v>
+        <v>1242.691348344597</v>
       </c>
       <c r="C5" t="n">
-        <v>555.9012523483213</v>
+        <v>1242.691348344597</v>
       </c>
       <c r="D5" t="n">
-        <v>555.9012523483213</v>
+        <v>1242.691348344597</v>
       </c>
       <c r="E5" t="n">
-        <v>555.9012523483213</v>
+        <v>1242.691348344597</v>
       </c>
       <c r="F5" t="n">
-        <v>545.7904656988958</v>
+        <v>828.5401576547672</v>
       </c>
       <c r="G5" t="n">
-        <v>130.072288318019</v>
+        <v>412.8219802738905</v>
       </c>
       <c r="H5" t="n">
-        <v>130.072288318019</v>
+        <v>83.95187398159368</v>
       </c>
       <c r="I5" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J5" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532629</v>
       </c>
       <c r="K5" t="n">
-        <v>443.1860302481634</v>
+        <v>443.186030248162</v>
       </c>
       <c r="L5" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907096</v>
       </c>
       <c r="M5" t="n">
-        <v>1310.379159876956</v>
+        <v>1310.379159876953</v>
       </c>
       <c r="N5" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599935</v>
       </c>
       <c r="O5" t="n">
-        <v>2124.896977382889</v>
+        <v>2124.896977382891</v>
       </c>
       <c r="P5" t="n">
-        <v>2407.429665198535</v>
+        <v>2407.429665198536</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.695873660731</v>
@@ -4594,25 +4594,25 @@
         <v>2476.292672113454</v>
       </c>
       <c r="S5" t="n">
-        <v>2297.855323089771</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="T5" t="n">
-        <v>2297.855323089771</v>
+        <v>2253.622605463969</v>
       </c>
       <c r="U5" t="n">
-        <v>2043.00085153696</v>
+        <v>1998.768133911158</v>
       </c>
       <c r="V5" t="n">
-        <v>1706.021577432901</v>
+        <v>1998.768133911158</v>
       </c>
       <c r="W5" t="n">
-        <v>1343.486647290503</v>
+        <v>1636.233203768759</v>
       </c>
       <c r="X5" t="n">
-        <v>1343.486647290503</v>
+        <v>1636.233203768759</v>
       </c>
       <c r="Y5" t="n">
-        <v>949.9447918663406</v>
+        <v>1242.691348344597</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>920.8593958421037</v>
+        <v>920.8593958421042</v>
       </c>
       <c r="C6" t="n">
-        <v>759.1557230830585</v>
+        <v>759.155723083059</v>
       </c>
       <c r="D6" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732712</v>
       </c>
       <c r="E6" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301423</v>
       </c>
       <c r="F6" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800167</v>
       </c>
       <c r="G6" t="n">
-        <v>210.0732042050869</v>
+        <v>210.0732042050872</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1289883137699</v>
+        <v>112.12898831377</v>
       </c>
       <c r="I6" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J6" t="n">
-        <v>68.1000180971543</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K6" t="n">
-        <v>68.1000180971543</v>
+        <v>280.3444700334033</v>
       </c>
       <c r="L6" t="n">
-        <v>477.85065097758</v>
+        <v>646.1663152035189</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.14682775868</v>
+        <v>1182.462491984619</v>
       </c>
       <c r="N6" t="n">
-        <v>1578.032071547365</v>
+        <v>1746.347735773302</v>
       </c>
       <c r="O6" t="n">
-        <v>2018.368674122672</v>
+        <v>2186.684338348609</v>
       </c>
       <c r="P6" t="n">
-        <v>2359.098500262959</v>
+        <v>2488.780257624306</v>
       </c>
       <c r="Q6" t="n">
         <v>2542.695873660731</v>
@@ -4673,19 +4673,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S6" t="n">
-        <v>2346.762917934841</v>
+        <v>2346.762917934842</v>
       </c>
       <c r="T6" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U6" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V6" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W6" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X6" t="n">
         <v>1272.800164973786</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.85391747321462</v>
+        <v>207.4612240671943</v>
       </c>
       <c r="C7" t="n">
-        <v>50.85391747321462</v>
+        <v>203.9258106454519</v>
       </c>
       <c r="D7" t="n">
         <v>50.85391747321462</v>
@@ -4728,49 +4728,49 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K7" t="n">
-        <v>104.1644935890949</v>
+        <v>104.1644935890946</v>
       </c>
       <c r="L7" t="n">
-        <v>229.9889654324849</v>
+        <v>229.9889654324842</v>
       </c>
       <c r="M7" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520446</v>
       </c>
       <c r="N7" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159662</v>
       </c>
       <c r="O7" t="n">
-        <v>641.3872247924078</v>
+        <v>641.387224792406</v>
       </c>
       <c r="P7" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544194</v>
       </c>
       <c r="Q7" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544194</v>
       </c>
       <c r="R7" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544194</v>
       </c>
       <c r="S7" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544194</v>
       </c>
       <c r="T7" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544194</v>
       </c>
       <c r="U7" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544194</v>
       </c>
       <c r="V7" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544194</v>
       </c>
       <c r="W7" t="n">
-        <v>504.1415403855618</v>
+        <v>438.7136881718185</v>
       </c>
       <c r="X7" t="n">
-        <v>272.8890762809376</v>
+        <v>207.4612240671943</v>
       </c>
       <c r="Y7" t="n">
-        <v>50.85391747321462</v>
+        <v>207.4612240671943</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1728.192061354377</v>
+        <v>765.7048575266842</v>
       </c>
       <c r="C8" t="n">
-        <v>1728.192061354377</v>
+        <v>383.7710988594916</v>
       </c>
       <c r="D8" t="n">
-        <v>1728.192061354377</v>
+        <v>383.7710988594916</v>
       </c>
       <c r="E8" t="n">
-        <v>1367.536682796252</v>
+        <v>383.7710988594916</v>
       </c>
       <c r="F8" t="n">
-        <v>953.3854921064224</v>
+        <v>373.660312210066</v>
       </c>
       <c r="G8" t="n">
-        <v>537.6673147255457</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H8" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I8" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J8" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532629</v>
       </c>
       <c r="K8" t="n">
-        <v>443.1860302481634</v>
+        <v>443.186030248162</v>
       </c>
       <c r="L8" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907096</v>
       </c>
       <c r="M8" t="n">
-        <v>1310.379159876956</v>
+        <v>1310.379159876953</v>
       </c>
       <c r="N8" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599935</v>
       </c>
       <c r="O8" t="n">
-        <v>2124.896977382889</v>
+        <v>2124.89697738289</v>
       </c>
       <c r="P8" t="n">
-        <v>2407.429665198535</v>
+        <v>2407.429665198536</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.695873660731</v>
       </c>
       <c r="R8" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113453</v>
       </c>
       <c r="S8" t="n">
-        <v>2542.695873660731</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T8" t="n">
-        <v>2320.025807011246</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="U8" t="n">
-        <v>2065.171335458435</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="V8" t="n">
-        <v>1728.192061354377</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="W8" t="n">
-        <v>1728.192061354377</v>
+        <v>1935.320392947372</v>
       </c>
       <c r="X8" t="n">
-        <v>1728.192061354377</v>
+        <v>1553.290252468865</v>
       </c>
       <c r="Y8" t="n">
-        <v>1728.192061354377</v>
+        <v>1159.748397044703</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>338.5952780800167</v>
       </c>
       <c r="G9" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050869</v>
       </c>
       <c r="H9" t="n">
-        <v>112.1289883137699</v>
+        <v>112.12898831377</v>
       </c>
       <c r="I9" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J9" t="n">
-        <v>50.85391747321462</v>
+        <v>99.01697645163583</v>
       </c>
       <c r="K9" t="n">
-        <v>313.014426141483</v>
+        <v>328.5075290118245</v>
       </c>
       <c r="L9" t="n">
-        <v>722.7650590219088</v>
+        <v>694.3293741819401</v>
       </c>
       <c r="M9" t="n">
-        <v>1259.061235803009</v>
+        <v>1179.362727692167</v>
       </c>
       <c r="N9" t="n">
-        <v>1578.032071547365</v>
+        <v>1690.628373815289</v>
       </c>
       <c r="O9" t="n">
-        <v>2018.368674122672</v>
+        <v>2082.828324599439</v>
       </c>
       <c r="P9" t="n">
-        <v>2359.098500262959</v>
+        <v>2384.924243875137</v>
       </c>
       <c r="Q9" t="n">
         <v>2542.695873660731</v>
@@ -4910,7 +4910,7 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S9" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T9" t="n">
         <v>2158.909856151447</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>271.5824667420744</v>
+        <v>524.9595562244384</v>
       </c>
       <c r="C10" t="n">
-        <v>271.5824667420744</v>
+        <v>355.3435866861187</v>
       </c>
       <c r="D10" t="n">
-        <v>202.8629317118958</v>
+        <v>355.3435866861187</v>
       </c>
       <c r="E10" t="n">
-        <v>50.85391747321462</v>
+        <v>203.3345724474375</v>
       </c>
       <c r="F10" t="n">
         <v>50.85391747321462</v>
@@ -4965,49 +4965,49 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K10" t="n">
-        <v>104.1644935890949</v>
+        <v>104.1644935890946</v>
       </c>
       <c r="L10" t="n">
-        <v>229.9889654324849</v>
+        <v>229.9889654324842</v>
       </c>
       <c r="M10" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520446</v>
       </c>
       <c r="N10" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159662</v>
       </c>
       <c r="O10" t="n">
-        <v>641.3872247924078</v>
+        <v>641.387224792406</v>
       </c>
       <c r="P10" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544194</v>
       </c>
       <c r="Q10" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544194</v>
       </c>
       <c r="R10" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544194</v>
       </c>
       <c r="S10" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544194</v>
       </c>
       <c r="T10" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544194</v>
       </c>
       <c r="U10" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544194</v>
       </c>
       <c r="V10" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544194</v>
       </c>
       <c r="W10" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544194</v>
       </c>
       <c r="X10" t="n">
-        <v>493.6176255497974</v>
+        <v>724.8700896544194</v>
       </c>
       <c r="Y10" t="n">
-        <v>271.5824667420744</v>
+        <v>708.5149249088182</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1762.322402690145</v>
+        <v>1187.219782188295</v>
       </c>
       <c r="C11" t="n">
-        <v>1762.322402690145</v>
+        <v>1187.219782188295</v>
       </c>
       <c r="D11" t="n">
-        <v>1762.322402690145</v>
+        <v>1187.219782188295</v>
       </c>
       <c r="E11" t="n">
-        <v>1367.536682796252</v>
+        <v>1187.219782188295</v>
       </c>
       <c r="F11" t="n">
         <v>953.3854921064224</v>
@@ -5041,7 +5041,7 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J11" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K11" t="n">
         <v>443.1860302481634</v>
@@ -5065,28 +5065,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R11" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S11" t="n">
-        <v>2297.855323089771</v>
+        <v>2364.258524637049</v>
       </c>
       <c r="T11" t="n">
-        <v>2075.185256440287</v>
+        <v>2141.588457987564</v>
       </c>
       <c r="U11" t="n">
-        <v>1820.330784887476</v>
+        <v>1886.733986434753</v>
       </c>
       <c r="V11" t="n">
-        <v>1820.330784887476</v>
+        <v>1549.754712330694</v>
       </c>
       <c r="W11" t="n">
-        <v>1820.330784887476</v>
+        <v>1187.219782188295</v>
       </c>
       <c r="X11" t="n">
-        <v>1820.330784887476</v>
+        <v>1187.219782188295</v>
       </c>
       <c r="Y11" t="n">
-        <v>1820.330784887476</v>
+        <v>1187.219782188295</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J12" t="n">
-        <v>130.2226992162549</v>
+        <v>111.1080640063208</v>
       </c>
       <c r="K12" t="n">
-        <v>392.3832078845233</v>
+        <v>373.2685726745892</v>
       </c>
       <c r="L12" t="n">
-        <v>802.1338407649491</v>
+        <v>783.0192055550149</v>
       </c>
       <c r="M12" t="n">
-        <v>1197.744201156452</v>
+        <v>1319.315382336115</v>
       </c>
       <c r="N12" t="n">
-        <v>1761.629444945137</v>
+        <v>1883.2006261248</v>
       </c>
       <c r="O12" t="n">
-        <v>2201.966047520444</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P12" t="n">
-        <v>2542.69587366073</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.69587366073</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>716.7357218656998</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C13" t="n">
-        <v>716.7357218656998</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D13" t="n">
-        <v>716.7357218656998</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E13" t="n">
-        <v>716.7357218656998</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F13" t="n">
-        <v>564.2550668914769</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G13" t="n">
-        <v>395.508378968762</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H13" t="n">
-        <v>237.6744007828319</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I13" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J13" t="n">
         <v>50.85391747321462</v>
@@ -5223,28 +5223,28 @@
         <v>724.8700896544216</v>
       </c>
       <c r="R13" t="n">
-        <v>716.7357218656998</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S13" t="n">
-        <v>716.7357218656998</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T13" t="n">
-        <v>716.7357218656998</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U13" t="n">
-        <v>716.7357218656998</v>
+        <v>597.7456233973928</v>
       </c>
       <c r="V13" t="n">
-        <v>716.7357218656998</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W13" t="n">
-        <v>716.7357218656998</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X13" t="n">
-        <v>716.7357218656998</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y13" t="n">
-        <v>716.7357218656998</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2141.588457987564</v>
+        <v>1392.125070480795</v>
       </c>
       <c r="C14" t="n">
-        <v>2135.146367462922</v>
+        <v>1392.125070480795</v>
       </c>
       <c r="D14" t="n">
-        <v>1762.322402690145</v>
+        <v>1019.301105708019</v>
       </c>
       <c r="E14" t="n">
-        <v>1367.536682796252</v>
+        <v>624.5153858141257</v>
       </c>
       <c r="F14" t="n">
-        <v>953.3854921064224</v>
+        <v>624.5153858141257</v>
       </c>
       <c r="G14" t="n">
-        <v>537.6673147255457</v>
+        <v>208.797208433249</v>
       </c>
       <c r="H14" t="n">
         <v>208.797208433249</v>
@@ -5305,25 +5305,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.258524637049</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T14" t="n">
-        <v>2141.588457987564</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="U14" t="n">
-        <v>2141.588457987564</v>
+        <v>2065.171335458435</v>
       </c>
       <c r="V14" t="n">
-        <v>2141.588457987564</v>
+        <v>2065.171335458435</v>
       </c>
       <c r="W14" t="n">
-        <v>2141.588457987564</v>
+        <v>2065.171335458435</v>
       </c>
       <c r="X14" t="n">
-        <v>2141.588457987564</v>
+        <v>2065.171335458435</v>
       </c>
       <c r="Y14" t="n">
-        <v>2141.588457987564</v>
+        <v>1671.629480034273</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.8593958421042</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C15" t="n">
-        <v>759.155723083059</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D15" t="n">
-        <v>620.3170860732712</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E15" t="n">
-        <v>473.2890761301423</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F15" t="n">
-        <v>338.5952780800167</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G15" t="n">
         <v>210.0732042050868</v>
       </c>
       <c r="H15" t="n">
-        <v>112.1289883137697</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I15" t="n">
         <v>50.85391747321462</v>
@@ -5360,25 +5360,25 @@
         <v>130.2226992162549</v>
       </c>
       <c r="K15" t="n">
-        <v>359.7132517764436</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L15" t="n">
-        <v>725.5350969465592</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M15" t="n">
-        <v>1126.743130026604</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N15" t="n">
-        <v>1690.628373815289</v>
+        <v>1902.315261334734</v>
       </c>
       <c r="O15" t="n">
-        <v>2082.828324599439</v>
+        <v>2342.651863910041</v>
       </c>
       <c r="P15" t="n">
-        <v>2384.924243875137</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q15" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R15" t="n">
         <v>2495.728130619192</v>
@@ -5387,16 +5387,16 @@
         <v>2346.762917934841</v>
       </c>
       <c r="T15" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U15" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V15" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W15" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X15" t="n">
         <v>1272.800164973786</v>
@@ -5457,22 +5457,22 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q16" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R16" t="n">
-        <v>559.0838802267906</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S16" t="n">
-        <v>348.3900938121795</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T16" t="n">
-        <v>115.9505818408994</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U16" t="n">
-        <v>115.9505818408994</v>
+        <v>597.7456233973928</v>
       </c>
       <c r="V16" t="n">
-        <v>50.85391747321462</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W16" t="n">
         <v>50.85391747321462</v>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.85391747321462</v>
+        <v>432.7876761404073</v>
       </c>
       <c r="C17" t="n">
         <v>50.85391747321462</v>
@@ -5539,28 +5539,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R17" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S17" t="n">
-        <v>2297.855323089771</v>
+        <v>2364.258524637049</v>
       </c>
       <c r="T17" t="n">
-        <v>2075.185256440287</v>
+        <v>2141.588457987564</v>
       </c>
       <c r="U17" t="n">
-        <v>1820.330784887476</v>
+        <v>2141.588457987564</v>
       </c>
       <c r="V17" t="n">
-        <v>1483.351510783417</v>
+        <v>1804.609183883505</v>
       </c>
       <c r="W17" t="n">
-        <v>1120.816580641018</v>
+        <v>1442.074253741107</v>
       </c>
       <c r="X17" t="n">
-        <v>738.7864401625116</v>
+        <v>1060.0441132626</v>
       </c>
       <c r="Y17" t="n">
-        <v>444.8974569912338</v>
+        <v>666.5022578384379</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J18" t="n">
-        <v>50.85391747321462</v>
+        <v>68.10001809715379</v>
       </c>
       <c r="K18" t="n">
-        <v>280.3444700334033</v>
+        <v>68.10001809715379</v>
       </c>
       <c r="L18" t="n">
-        <v>646.1663152035189</v>
+        <v>477.8506509775796</v>
       </c>
       <c r="M18" t="n">
-        <v>1131.199668713745</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N18" t="n">
-        <v>1642.465314836867</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O18" t="n">
-        <v>2082.801917412175</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P18" t="n">
         <v>2359.098500262958</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>220.4698870115343</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C19" t="n">
         <v>50.85391747321462</v>
@@ -5700,25 +5700,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S19" t="n">
-        <v>724.8700896544216</v>
+        <v>624.1911187916555</v>
       </c>
       <c r="T19" t="n">
-        <v>724.8700896544216</v>
+        <v>624.1911187916555</v>
       </c>
       <c r="U19" t="n">
-        <v>724.8700896544216</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="V19" t="n">
-        <v>464.1347852128442</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W19" t="n">
-        <v>464.1347852128442</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X19" t="n">
-        <v>464.1347852128442</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y19" t="n">
-        <v>242.0996264051213</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1510.26992814759</v>
+        <v>969.697862588707</v>
       </c>
       <c r="C20" t="n">
-        <v>1510.26992814759</v>
+        <v>969.697862588707</v>
       </c>
       <c r="D20" t="n">
-        <v>1137.445963374814</v>
+        <v>969.697862588707</v>
       </c>
       <c r="E20" t="n">
-        <v>742.6602434809208</v>
+        <v>574.9121426948138</v>
       </c>
       <c r="F20" t="n">
-        <v>328.5090527910912</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G20" t="n">
         <v>50.85391747321462</v>
@@ -5752,13 +5752,13 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J20" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K20" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L20" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M20" t="n">
         <v>1310.379159876956</v>
@@ -5779,25 +5779,25 @@
         <v>2476.292672113454</v>
       </c>
       <c r="S20" t="n">
-        <v>2297.855323089771</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="T20" t="n">
-        <v>2297.855323089771</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="U20" t="n">
-        <v>2297.855323089771</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="V20" t="n">
-        <v>2297.855323089771</v>
+        <v>2139.313398009395</v>
       </c>
       <c r="W20" t="n">
-        <v>2297.855323089771</v>
+        <v>2139.313398009395</v>
       </c>
       <c r="X20" t="n">
-        <v>2297.855323089771</v>
+        <v>1757.283257530888</v>
       </c>
       <c r="Y20" t="n">
-        <v>1904.31346766561</v>
+        <v>1363.741402106726</v>
       </c>
     </row>
     <row r="21">
@@ -5807,70 +5807,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>920.8593958421045</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C21" t="n">
-        <v>759.1557230830592</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D21" t="n">
-        <v>620.3170860732713</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E21" t="n">
-        <v>473.2890761301425</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F21" t="n">
-        <v>338.5952780800169</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G21" t="n">
-        <v>210.0732042050874</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H21" t="n">
-        <v>112.1289883137705</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I21" t="n">
-        <v>50.85391747321523</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J21" t="n">
-        <v>50.85391747321523</v>
+        <v>111.1080640063208</v>
       </c>
       <c r="K21" t="n">
-        <v>313.0144261414836</v>
+        <v>373.2685726745892</v>
       </c>
       <c r="L21" t="n">
-        <v>722.7650590219093</v>
+        <v>783.0192055550149</v>
       </c>
       <c r="M21" t="n">
-        <v>1259.06123580301</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N21" t="n">
-        <v>1770.326881926132</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O21" t="n">
-        <v>2201.966047520445</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P21" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q21" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R21" t="n">
         <v>2495.728130619192</v>
       </c>
       <c r="S21" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T21" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U21" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V21" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W21" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X21" t="n">
         <v>1272.800164973786</v>
@@ -5943,19 +5943,19 @@
         <v>724.8700896544216</v>
       </c>
       <c r="U22" t="n">
-        <v>687.6969090699416</v>
+        <v>437.6892898185816</v>
       </c>
       <c r="V22" t="n">
-        <v>687.6969090699416</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W22" t="n">
-        <v>687.6969090699416</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X22" t="n">
-        <v>456.4444449653174</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y22" t="n">
-        <v>234.4092861575944</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1035.135955823275</v>
+        <v>1864.005594108018</v>
       </c>
       <c r="C23" t="n">
-        <v>653.2021971560828</v>
+        <v>1482.071835440826</v>
       </c>
       <c r="D23" t="n">
-        <v>653.2021971560828</v>
+        <v>1109.247870668049</v>
       </c>
       <c r="E23" t="n">
-        <v>653.2021971560828</v>
+        <v>714.462150774156</v>
       </c>
       <c r="F23" t="n">
-        <v>653.2021971560828</v>
+        <v>384.7654327850781</v>
       </c>
       <c r="G23" t="n">
         <v>384.7654327850781</v>
@@ -6016,25 +6016,25 @@
         <v>2957.563337872495</v>
       </c>
       <c r="S23" t="n">
-        <v>2788.211208809223</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="T23" t="n">
-        <v>2567.286421386362</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="U23" t="n">
-        <v>2567.286421386362</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="V23" t="n">
-        <v>2567.286421386362</v>
+        <v>2620.584063768436</v>
       </c>
       <c r="W23" t="n">
-        <v>2204.751491243963</v>
+        <v>2258.049133626037</v>
       </c>
       <c r="X23" t="n">
-        <v>1822.721350765457</v>
+        <v>2258.049133626037</v>
       </c>
       <c r="Y23" t="n">
-        <v>1429.179495341295</v>
+        <v>2258.049133626037</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>59.97844262748436</v>
       </c>
       <c r="K24" t="n">
-        <v>97.70396851825979</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="L24" t="n">
-        <v>552.8503772468607</v>
+        <v>515.1248513560853</v>
       </c>
       <c r="M24" t="n">
-        <v>1142.121283262363</v>
+        <v>1104.395757371588</v>
       </c>
       <c r="N24" t="n">
-        <v>1653.386929385485</v>
+        <v>1722.657813846283</v>
       </c>
       <c r="O24" t="n">
-        <v>2143.467692195838</v>
+        <v>2212.738576656636</v>
       </c>
       <c r="P24" t="n">
         <v>2524.121592447383</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>349.8428002755725</v>
+        <v>85.32954374140635</v>
       </c>
       <c r="C25" t="n">
-        <v>349.8428002755725</v>
+        <v>85.32954374140635</v>
       </c>
       <c r="D25" t="n">
-        <v>349.8428002755725</v>
+        <v>85.32954374140635</v>
       </c>
       <c r="E25" t="n">
-        <v>349.8428002755725</v>
+        <v>85.32954374140635</v>
       </c>
       <c r="F25" t="n">
-        <v>349.8428002755725</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="G25" t="n">
-        <v>349.8428002755725</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H25" t="n">
-        <v>193.5988724292328</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I25" t="n">
         <v>59.97844262748436</v>
@@ -6177,22 +6177,22 @@
         <v>880.6921489575113</v>
       </c>
       <c r="T25" t="n">
-        <v>649.0167716075068</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="U25" t="n">
-        <v>649.0167716075068</v>
+        <v>593.5211040317301</v>
       </c>
       <c r="V25" t="n">
-        <v>388.2814671659294</v>
+        <v>593.5211040317301</v>
       </c>
       <c r="W25" t="n">
-        <v>349.8428002755725</v>
+        <v>307.3647025491293</v>
       </c>
       <c r="X25" t="n">
-        <v>349.8428002755725</v>
+        <v>307.3647025491293</v>
       </c>
       <c r="Y25" t="n">
-        <v>349.8428002755725</v>
+        <v>85.32954374140635</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>900.162071182785</v>
+        <v>1643.582490779015</v>
       </c>
       <c r="C26" t="n">
-        <v>900.162071182785</v>
+        <v>1261.648732111822</v>
       </c>
       <c r="D26" t="n">
-        <v>527.3381064100085</v>
+        <v>888.824767339046</v>
       </c>
       <c r="E26" t="n">
-        <v>527.3381064100085</v>
+        <v>494.0390474451529</v>
       </c>
       <c r="F26" t="n">
-        <v>527.3381064100085</v>
+        <v>475.2979268669278</v>
       </c>
       <c r="G26" t="n">
-        <v>527.3381064100085</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H26" t="n">
-        <v>202.5511162524148</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I26" t="n">
         <v>59.97844262748436</v>
       </c>
       <c r="J26" t="n">
-        <v>197.2356248381974</v>
+        <v>197.2356248381973</v>
       </c>
       <c r="K26" t="n">
-        <v>535.1817785951595</v>
+        <v>535.1817785951594</v>
       </c>
       <c r="L26" t="n">
         <v>1004.403872472887</v>
@@ -6241,7 +6241,7 @@
         <v>2048.179970075087</v>
       </c>
       <c r="O26" t="n">
-        <v>2482.733989241929</v>
+        <v>2482.73398924193</v>
       </c>
       <c r="P26" t="n">
         <v>2821.458330977218</v>
@@ -6250,28 +6250,28 @@
         <v>2998.922131374218</v>
       </c>
       <c r="R26" t="n">
-        <v>2998.922131374218</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="S26" t="n">
-        <v>2998.922131374218</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="T26" t="n">
-        <v>2998.922131374218</v>
+        <v>2736.638550449635</v>
       </c>
       <c r="U26" t="n">
-        <v>2744.099555272722</v>
+        <v>2736.638550449635</v>
       </c>
       <c r="V26" t="n">
-        <v>2407.120281168663</v>
+        <v>2399.659276345576</v>
       </c>
       <c r="W26" t="n">
-        <v>2044.585351026264</v>
+        <v>2037.124346203177</v>
       </c>
       <c r="X26" t="n">
-        <v>1662.555210547757</v>
+        <v>2037.124346203177</v>
       </c>
       <c r="Y26" t="n">
-        <v>1269.013355123595</v>
+        <v>1643.582490779015</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>59.97844262748436</v>
       </c>
       <c r="J27" t="n">
-        <v>59.97844262748436</v>
+        <v>120.2325891605905</v>
       </c>
       <c r="K27" t="n">
-        <v>355.8999103787194</v>
+        <v>416.1540569118255</v>
       </c>
       <c r="L27" t="n">
-        <v>811.0463191073203</v>
+        <v>871.3004656404264</v>
       </c>
       <c r="M27" t="n">
-        <v>1400.317225122823</v>
+        <v>1460.571371655929</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.944910361333</v>
+        <v>2034.04082963703</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.025673171686</v>
+        <v>2524.121592447383</v>
       </c>
       <c r="P27" t="n">
         <v>2524.121592447383</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>101.5333354855285</v>
+        <v>173.66565749655</v>
       </c>
       <c r="C28" t="n">
-        <v>101.5333354855285</v>
+        <v>173.66565749655</v>
       </c>
       <c r="D28" t="n">
-        <v>59.97844262748436</v>
+        <v>173.66565749655</v>
       </c>
       <c r="E28" t="n">
         <v>59.97844262748436</v>
@@ -6408,28 +6408,28 @@
         <v>880.6921489575113</v>
       </c>
       <c r="R28" t="n">
-        <v>880.6921489575113</v>
+        <v>746.993103904932</v>
       </c>
       <c r="S28" t="n">
-        <v>880.6921489575113</v>
+        <v>746.993103904932</v>
       </c>
       <c r="T28" t="n">
-        <v>880.6921489575113</v>
+        <v>746.993103904932</v>
       </c>
       <c r="U28" t="n">
-        <v>593.5211040317301</v>
+        <v>459.8220589791508</v>
       </c>
       <c r="V28" t="n">
-        <v>332.7857995901527</v>
+        <v>459.8220589791508</v>
       </c>
       <c r="W28" t="n">
-        <v>332.7857995901527</v>
+        <v>173.66565749655</v>
       </c>
       <c r="X28" t="n">
-        <v>101.5333354855285</v>
+        <v>173.66565749655</v>
       </c>
       <c r="Y28" t="n">
-        <v>101.5333354855285</v>
+        <v>173.66565749655</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1388.258230583662</v>
+        <v>1829.30659595353</v>
       </c>
       <c r="C29" t="n">
-        <v>1315.481555422228</v>
+        <v>1447.372837286338</v>
       </c>
       <c r="D29" t="n">
-        <v>942.657590649452</v>
+        <v>1284.234837450651</v>
       </c>
       <c r="E29" t="n">
-        <v>942.657590649452</v>
+        <v>889.4491175567575</v>
       </c>
       <c r="F29" t="n">
-        <v>942.657590649452</v>
+        <v>475.2979268669278</v>
       </c>
       <c r="G29" t="n">
-        <v>527.3381064100085</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H29" t="n">
-        <v>202.5511162524148</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I29" t="n">
         <v>59.97844262748436</v>
       </c>
       <c r="J29" t="n">
-        <v>197.2356248381973</v>
+        <v>197.2356248381975</v>
       </c>
       <c r="K29" t="n">
-        <v>535.1817785951594</v>
+        <v>535.1817785951598</v>
       </c>
       <c r="L29" t="n">
         <v>1004.403872472887</v>
@@ -6487,28 +6487,28 @@
         <v>2998.922131374218</v>
       </c>
       <c r="R29" t="n">
-        <v>2957.563337872495</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="S29" t="n">
-        <v>2957.563337872495</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="T29" t="n">
-        <v>2736.638550449635</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="U29" t="n">
-        <v>2481.815974348138</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="V29" t="n">
-        <v>2144.83670024408</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="W29" t="n">
-        <v>1782.301770101681</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="X29" t="n">
-        <v>1782.301770101681</v>
+        <v>2616.891990895711</v>
       </c>
       <c r="Y29" t="n">
-        <v>1782.301770101681</v>
+        <v>2223.350135471549</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>59.97844262748436</v>
       </c>
       <c r="J30" t="n">
-        <v>159.1001868499821</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="K30" t="n">
-        <v>455.0216546012171</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="L30" t="n">
-        <v>910.1680633298181</v>
+        <v>425.8002877976</v>
       </c>
       <c r="M30" t="n">
-        <v>1395.201416840045</v>
+        <v>955.9112241010436</v>
       </c>
       <c r="N30" t="n">
-        <v>1495.615299599891</v>
+        <v>1574.173280575739</v>
       </c>
       <c r="O30" t="n">
-        <v>1985.696062410244</v>
+        <v>2064.254043386092</v>
       </c>
       <c r="P30" t="n">
         <v>2366.349962661789</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2381.954130123327</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="C31" t="n">
-        <v>2381.954130123327</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="D31" t="n">
-        <v>2381.954130123327</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="E31" t="n">
-        <v>2381.954130123327</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="F31" t="n">
-        <v>2381.954130123327</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="G31" t="n">
-        <v>2213.386282218357</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H31" t="n">
-        <v>2213.386282218357</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I31" t="n">
-        <v>2213.386282218357</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="J31" t="n">
-        <v>2178.20842504419</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="K31" t="n">
-        <v>2251.88347821273</v>
+        <v>133.6534957960239</v>
       </c>
       <c r="L31" t="n">
-        <v>2403.767469439468</v>
+        <v>285.5374870227621</v>
       </c>
       <c r="M31" t="n">
-        <v>2575.825289534538</v>
+        <v>457.5953071178318</v>
       </c>
       <c r="N31" t="n">
-        <v>2747.026416705144</v>
+        <v>628.7964342884372</v>
       </c>
       <c r="O31" t="n">
-        <v>2894.239814031095</v>
+        <v>776.0098316143881</v>
       </c>
       <c r="P31" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="Q31" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="R31" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="S31" t="n">
-        <v>2874.364811914908</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="T31" t="n">
-        <v>2642.689434564904</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="U31" t="n">
-        <v>2642.689434564904</v>
+        <v>593.5211040317301</v>
       </c>
       <c r="V31" t="n">
-        <v>2381.954130123327</v>
+        <v>346.1348441100852</v>
       </c>
       <c r="W31" t="n">
-        <v>2381.954130123327</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="X31" t="n">
-        <v>2381.954130123327</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="Y31" t="n">
-        <v>2381.954130123327</v>
+        <v>59.97844262748436</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1006.729774199012</v>
+        <v>848.1218916397042</v>
       </c>
       <c r="C32" t="n">
-        <v>1006.729774199012</v>
+        <v>848.1218916397042</v>
       </c>
       <c r="D32" t="n">
-        <v>942.657590649452</v>
+        <v>475.2979268669278</v>
       </c>
       <c r="E32" t="n">
-        <v>942.657590649452</v>
+        <v>475.2979268669278</v>
       </c>
       <c r="F32" t="n">
-        <v>942.657590649452</v>
+        <v>475.2979268669278</v>
       </c>
       <c r="G32" t="n">
-        <v>527.3381064100085</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H32" t="n">
-        <v>202.5511162524148</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I32" t="n">
         <v>59.97844262748436</v>
       </c>
       <c r="J32" t="n">
-        <v>197.2356248381973</v>
+        <v>197.2356248381974</v>
       </c>
       <c r="K32" t="n">
-        <v>535.1817785951594</v>
+        <v>535.1817785951595</v>
       </c>
       <c r="L32" t="n">
         <v>1004.403872472887</v>
       </c>
       <c r="M32" t="n">
-        <v>1532.653519691109</v>
+        <v>1532.65351969111</v>
       </c>
       <c r="N32" t="n">
-        <v>2048.179970075087</v>
+        <v>2048.179970075088</v>
       </c>
       <c r="O32" t="n">
         <v>2482.73398924193</v>
@@ -6724,28 +6724,28 @@
         <v>2998.922131374218</v>
       </c>
       <c r="R32" t="n">
-        <v>2957.563337872495</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="S32" t="n">
-        <v>2957.563337872495</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="T32" t="n">
-        <v>2736.638550449635</v>
+        <v>2777.997343951358</v>
       </c>
       <c r="U32" t="n">
-        <v>2481.815974348138</v>
+        <v>2523.174767849861</v>
       </c>
       <c r="V32" t="n">
-        <v>2144.83670024408</v>
+        <v>2380.272357202791</v>
       </c>
       <c r="W32" t="n">
-        <v>1782.301770101681</v>
+        <v>2017.737427060392</v>
       </c>
       <c r="X32" t="n">
-        <v>1400.271629623174</v>
+        <v>1635.707286581885</v>
       </c>
       <c r="Y32" t="n">
-        <v>1006.729774199012</v>
+        <v>1242.165431157723</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>59.97844262748436</v>
       </c>
       <c r="J33" t="n">
-        <v>59.97844262748436</v>
+        <v>120.2325891605905</v>
       </c>
       <c r="K33" t="n">
-        <v>289.468995187673</v>
+        <v>371.3614584182313</v>
       </c>
       <c r="L33" t="n">
-        <v>647.9723314267661</v>
+        <v>826.5078671468323</v>
       </c>
       <c r="M33" t="n">
-        <v>1133.005684936993</v>
+        <v>1415.778773162335</v>
       </c>
       <c r="N33" t="n">
-        <v>1751.267741411688</v>
+        <v>2034.04082963703</v>
       </c>
       <c r="O33" t="n">
-        <v>2143.467692195838</v>
+        <v>2524.121592447383</v>
       </c>
       <c r="P33" t="n">
         <v>2524.121592447383</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2804.337835334301</v>
+        <v>76.11223844450504</v>
       </c>
       <c r="C34" t="n">
-        <v>2804.337835334301</v>
+        <v>76.11223844450504</v>
       </c>
       <c r="D34" t="n">
-        <v>2651.265942162064</v>
+        <v>76.11223844450504</v>
       </c>
       <c r="E34" t="n">
-        <v>2499.256927923383</v>
+        <v>76.11223844450504</v>
       </c>
       <c r="F34" t="n">
-        <v>2346.77627294916</v>
+        <v>76.11223844450504</v>
       </c>
       <c r="G34" t="n">
-        <v>2178.20842504419</v>
+        <v>76.11223844450504</v>
       </c>
       <c r="H34" t="n">
-        <v>2178.20842504419</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I34" t="n">
-        <v>2178.20842504419</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="J34" t="n">
-        <v>2178.20842504419</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="K34" t="n">
-        <v>2251.88347821273</v>
+        <v>133.6534957960239</v>
       </c>
       <c r="L34" t="n">
-        <v>2403.767469439468</v>
+        <v>285.5374870227621</v>
       </c>
       <c r="M34" t="n">
-        <v>2575.825289534538</v>
+        <v>457.5953071178318</v>
       </c>
       <c r="N34" t="n">
-        <v>2747.026416705144</v>
+        <v>628.7964342884372</v>
       </c>
       <c r="O34" t="n">
-        <v>2894.239814031095</v>
+        <v>776.0098316143881</v>
       </c>
       <c r="P34" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="Q34" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="R34" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="S34" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="T34" t="n">
-        <v>2804.337835334301</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="U34" t="n">
-        <v>2804.337835334301</v>
+        <v>593.5211040317301</v>
       </c>
       <c r="V34" t="n">
-        <v>2804.337835334301</v>
+        <v>593.5211040317301</v>
       </c>
       <c r="W34" t="n">
-        <v>2804.337835334301</v>
+        <v>307.3647025491293</v>
       </c>
       <c r="X34" t="n">
-        <v>2804.337835334301</v>
+        <v>76.11223844450504</v>
       </c>
       <c r="Y34" t="n">
-        <v>2804.337835334301</v>
+        <v>76.11223844450504</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1372.628323931827</v>
+        <v>1261.050666206651</v>
       </c>
       <c r="C35" t="n">
-        <v>990.6945652646347</v>
+        <v>879.1169075394587</v>
       </c>
       <c r="D35" t="n">
-        <v>617.8706004918582</v>
+        <v>506.2929427666822</v>
       </c>
       <c r="E35" t="n">
-        <v>617.8706004918582</v>
+        <v>506.2929427666822</v>
       </c>
       <c r="F35" t="n">
-        <v>617.8706004918582</v>
+        <v>506.2929427666822</v>
       </c>
       <c r="G35" t="n">
-        <v>202.5511162524148</v>
+        <v>90.97345852723879</v>
       </c>
       <c r="H35" t="n">
-        <v>202.5511162524148</v>
+        <v>90.97345852723879</v>
       </c>
       <c r="I35" t="n">
         <v>59.97844262748436</v>
@@ -6961,28 +6961,28 @@
         <v>2998.922131374218</v>
       </c>
       <c r="R35" t="n">
-        <v>2998.922131374218</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="S35" t="n">
-        <v>2998.922131374218</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="T35" t="n">
-        <v>2777.997343951358</v>
+        <v>2736.638550449635</v>
       </c>
       <c r="U35" t="n">
-        <v>2777.997343951358</v>
+        <v>2736.638550449635</v>
       </c>
       <c r="V35" t="n">
-        <v>2542.243859352515</v>
+        <v>2399.659276345576</v>
       </c>
       <c r="W35" t="n">
-        <v>2542.243859352515</v>
+        <v>2037.124346203177</v>
       </c>
       <c r="X35" t="n">
-        <v>2160.213718874008</v>
+        <v>1655.09420572467</v>
       </c>
       <c r="Y35" t="n">
-        <v>1766.671863449846</v>
+        <v>1655.09420572467</v>
       </c>
     </row>
     <row r="36">
@@ -7028,10 +7028,10 @@
         <v>1400.317225122823</v>
       </c>
       <c r="N36" t="n">
-        <v>1911.582871245945</v>
+        <v>2018.579281597518</v>
       </c>
       <c r="O36" t="n">
-        <v>2401.663634056298</v>
+        <v>2508.660044407871</v>
       </c>
       <c r="P36" t="n">
         <v>2524.121592447383</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>59.97844262748436</v>
+        <v>307.3647025491293</v>
       </c>
       <c r="C37" t="n">
-        <v>59.97844262748436</v>
+        <v>307.3647025491293</v>
       </c>
       <c r="D37" t="n">
-        <v>59.97844262748436</v>
+        <v>307.3647025491293</v>
       </c>
       <c r="E37" t="n">
-        <v>59.97844262748436</v>
+        <v>193.5988724292328</v>
       </c>
       <c r="F37" t="n">
-        <v>59.97844262748436</v>
+        <v>193.5988724292328</v>
       </c>
       <c r="G37" t="n">
-        <v>59.97844262748436</v>
+        <v>193.5988724292328</v>
       </c>
       <c r="H37" t="n">
-        <v>59.97844262748436</v>
+        <v>193.5988724292328</v>
       </c>
       <c r="I37" t="n">
         <v>59.97844262748436</v>
@@ -7116,31 +7116,31 @@
         <v>880.6921489575113</v>
       </c>
       <c r="Q37" t="n">
-        <v>871.6216948662861</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="R37" t="n">
-        <v>871.6216948662861</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="S37" t="n">
-        <v>664.0446022154736</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="T37" t="n">
-        <v>607.884791994843</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="U37" t="n">
-        <v>320.7137470690618</v>
+        <v>593.5211040317301</v>
       </c>
       <c r="V37" t="n">
-        <v>59.97844262748436</v>
+        <v>593.5211040317301</v>
       </c>
       <c r="W37" t="n">
-        <v>59.97844262748436</v>
+        <v>307.3647025491293</v>
       </c>
       <c r="X37" t="n">
-        <v>59.97844262748436</v>
+        <v>307.3647025491293</v>
       </c>
       <c r="Y37" t="n">
-        <v>59.97844262748436</v>
+        <v>307.3647025491293</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>942.657590649452</v>
+        <v>1623.673076651176</v>
       </c>
       <c r="C38" t="n">
-        <v>942.657590649452</v>
+        <v>1241.739317983984</v>
       </c>
       <c r="D38" t="n">
-        <v>942.657590649452</v>
+        <v>868.9153532112072</v>
       </c>
       <c r="E38" t="n">
-        <v>942.657590649452</v>
+        <v>474.129633317314</v>
       </c>
       <c r="F38" t="n">
-        <v>942.657590649452</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="G38" t="n">
-        <v>527.3381064100085</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H38" t="n">
-        <v>202.5511162524148</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I38" t="n">
         <v>59.97844262748436</v>
       </c>
       <c r="J38" t="n">
-        <v>197.2356248381974</v>
+        <v>197.2356248381975</v>
       </c>
       <c r="K38" t="n">
-        <v>535.1817785951595</v>
+        <v>535.1817785951594</v>
       </c>
       <c r="L38" t="n">
         <v>1004.403872472887</v>
@@ -7198,28 +7198,28 @@
         <v>2998.922131374218</v>
       </c>
       <c r="R38" t="n">
-        <v>2957.563337872495</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="S38" t="n">
-        <v>2788.211208809223</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="T38" t="n">
-        <v>2567.286421386362</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="U38" t="n">
-        <v>2312.463845284866</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="V38" t="n">
-        <v>1975.484571180807</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="W38" t="n">
-        <v>1612.949641038408</v>
+        <v>2636.387201231819</v>
       </c>
       <c r="X38" t="n">
-        <v>1230.919500559902</v>
+        <v>2411.258471593358</v>
       </c>
       <c r="Y38" t="n">
-        <v>1230.919500559902</v>
+        <v>2017.716616169196</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>59.97844262748436</v>
       </c>
       <c r="J39" t="n">
-        <v>59.97844262748436</v>
+        <v>120.2325891605905</v>
       </c>
       <c r="K39" t="n">
-        <v>59.97844262748436</v>
+        <v>416.1540569118255</v>
       </c>
       <c r="L39" t="n">
-        <v>515.1248513560853</v>
+        <v>826.5078671468323</v>
       </c>
       <c r="M39" t="n">
-        <v>1104.395757371588</v>
+        <v>1415.778773162335</v>
       </c>
       <c r="N39" t="n">
-        <v>1722.657813846283</v>
+        <v>2034.04082963703</v>
       </c>
       <c r="O39" t="n">
-        <v>2212.738576656636</v>
+        <v>2524.121592447383</v>
       </c>
       <c r="P39" t="n">
         <v>2524.121592447383</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2362.079139777491</v>
+        <v>173.66565749655</v>
       </c>
       <c r="C40" t="n">
-        <v>2362.079139777491</v>
+        <v>173.66565749655</v>
       </c>
       <c r="D40" t="n">
-        <v>2362.079139777491</v>
+        <v>173.66565749655</v>
       </c>
       <c r="E40" t="n">
-        <v>2362.079139777491</v>
+        <v>173.66565749655</v>
       </c>
       <c r="F40" t="n">
-        <v>2362.079139777491</v>
+        <v>173.66565749655</v>
       </c>
       <c r="G40" t="n">
-        <v>2362.079139777491</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H40" t="n">
-        <v>2311.828854845939</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I40" t="n">
-        <v>2178.20842504419</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="J40" t="n">
-        <v>2178.20842504419</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="K40" t="n">
-        <v>2251.88347821273</v>
+        <v>133.6534957960239</v>
       </c>
       <c r="L40" t="n">
-        <v>2403.767469439468</v>
+        <v>285.5374870227621</v>
       </c>
       <c r="M40" t="n">
-        <v>2575.825289534538</v>
+        <v>457.5953071178318</v>
       </c>
       <c r="N40" t="n">
-        <v>2747.026416705144</v>
+        <v>628.7964342884372</v>
       </c>
       <c r="O40" t="n">
-        <v>2894.239814031095</v>
+        <v>776.0098316143881</v>
       </c>
       <c r="P40" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="Q40" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="R40" t="n">
-        <v>2998.922131374218</v>
+        <v>746.993103904932</v>
       </c>
       <c r="S40" t="n">
-        <v>2998.922131374218</v>
+        <v>746.993103904932</v>
       </c>
       <c r="T40" t="n">
-        <v>2998.922131374218</v>
+        <v>746.993103904932</v>
       </c>
       <c r="U40" t="n">
-        <v>2998.922131374218</v>
+        <v>459.8220589791508</v>
       </c>
       <c r="V40" t="n">
-        <v>2998.922131374218</v>
+        <v>459.8220589791508</v>
       </c>
       <c r="W40" t="n">
-        <v>2998.922131374218</v>
+        <v>173.66565749655</v>
       </c>
       <c r="X40" t="n">
-        <v>2767.669667269594</v>
+        <v>173.66565749655</v>
       </c>
       <c r="Y40" t="n">
-        <v>2545.634508461871</v>
+        <v>173.66565749655</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2038.99256089062</v>
+        <v>1666.168596117843</v>
       </c>
       <c r="C41" t="n">
-        <v>1657.058802223427</v>
+        <v>1284.234837450651</v>
       </c>
       <c r="D41" t="n">
         <v>1284.234837450651</v>
@@ -7411,10 +7411,10 @@
         <v>59.97844262748436</v>
       </c>
       <c r="J41" t="n">
-        <v>197.2356248381974</v>
+        <v>197.2356248381973</v>
       </c>
       <c r="K41" t="n">
-        <v>535.1817785951595</v>
+        <v>535.1817785951594</v>
       </c>
       <c r="L41" t="n">
         <v>1004.403872472887</v>
@@ -7435,28 +7435,28 @@
         <v>2998.922131374218</v>
       </c>
       <c r="R41" t="n">
-        <v>2957.563337872495</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="S41" t="n">
-        <v>2957.563337872495</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="T41" t="n">
-        <v>2957.563337872495</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="U41" t="n">
-        <v>2957.563337872495</v>
+        <v>2816.288921202423</v>
       </c>
       <c r="V41" t="n">
-        <v>2826.577955832801</v>
+        <v>2816.288921202423</v>
       </c>
       <c r="W41" t="n">
-        <v>2826.577955832801</v>
+        <v>2453.753991060024</v>
       </c>
       <c r="X41" t="n">
-        <v>2826.577955832801</v>
+        <v>2453.753991060024</v>
       </c>
       <c r="Y41" t="n">
-        <v>2433.036100408639</v>
+        <v>2060.212135635863</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>59.97844262748436</v>
       </c>
       <c r="J42" t="n">
-        <v>159.1001868499821</v>
+        <v>120.2325891605905</v>
       </c>
       <c r="K42" t="n">
-        <v>455.0216546012171</v>
+        <v>416.1540569118255</v>
       </c>
       <c r="L42" t="n">
-        <v>910.1680633298181</v>
+        <v>871.3004656404264</v>
       </c>
       <c r="M42" t="n">
-        <v>1499.438969345321</v>
+        <v>1460.571371655929</v>
       </c>
       <c r="N42" t="n">
-        <v>2117.701025820016</v>
+        <v>2034.04082963703</v>
       </c>
       <c r="O42" t="n">
-        <v>2143.467692195838</v>
+        <v>2524.121592447383</v>
       </c>
       <c r="P42" t="n">
         <v>2524.121592447383</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2330.217439282872</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="C43" t="n">
-        <v>2330.217439282872</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="D43" t="n">
-        <v>2330.217439282872</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="E43" t="n">
-        <v>2178.20842504419</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="F43" t="n">
-        <v>2178.20842504419</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="G43" t="n">
-        <v>2178.20842504419</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H43" t="n">
-        <v>2178.20842504419</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I43" t="n">
-        <v>2178.20842504419</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="J43" t="n">
-        <v>2178.20842504419</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="K43" t="n">
-        <v>2251.88347821273</v>
+        <v>133.6534957960239</v>
       </c>
       <c r="L43" t="n">
-        <v>2403.767469439468</v>
+        <v>285.5374870227621</v>
       </c>
       <c r="M43" t="n">
-        <v>2575.825289534538</v>
+        <v>457.5953071178318</v>
       </c>
       <c r="N43" t="n">
-        <v>2747.026416705144</v>
+        <v>628.7964342884372</v>
       </c>
       <c r="O43" t="n">
-        <v>2894.239814031095</v>
+        <v>776.0098316143881</v>
       </c>
       <c r="P43" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="Q43" t="n">
-        <v>2989.851677282993</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="R43" t="n">
-        <v>2989.851677282993</v>
+        <v>746.993103904932</v>
       </c>
       <c r="S43" t="n">
-        <v>2989.851677282993</v>
+        <v>746.993103904932</v>
       </c>
       <c r="T43" t="n">
-        <v>2989.851677282993</v>
+        <v>746.993103904932</v>
       </c>
       <c r="U43" t="n">
-        <v>2702.680632357212</v>
+        <v>459.8220589791508</v>
       </c>
       <c r="V43" t="n">
-        <v>2441.945327915635</v>
+        <v>459.8220589791508</v>
       </c>
       <c r="W43" t="n">
-        <v>2441.945327915635</v>
+        <v>173.66565749655</v>
       </c>
       <c r="X43" t="n">
-        <v>2330.217439282872</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="Y43" t="n">
-        <v>2330.217439282872</v>
+        <v>59.97844262748436</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2124.418466005951</v>
+        <v>1833.874428461269</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.418466005951</v>
+        <v>1451.940669794076</v>
       </c>
       <c r="D44" t="n">
-        <v>1751.594501233175</v>
+        <v>1079.1167050213</v>
       </c>
       <c r="E44" t="n">
-        <v>1356.808781339282</v>
+        <v>684.3309851274066</v>
       </c>
       <c r="F44" t="n">
-        <v>942.657590649452</v>
+        <v>617.8706004918583</v>
       </c>
       <c r="G44" t="n">
-        <v>527.3381064100085</v>
+        <v>202.5511162524148</v>
       </c>
       <c r="H44" t="n">
         <v>202.5511162524148</v>
       </c>
       <c r="I44" t="n">
-        <v>59.97844262748436</v>
+        <v>59.97844262748438</v>
       </c>
       <c r="J44" t="n">
-        <v>197.2356248381975</v>
+        <v>197.2356248381977</v>
       </c>
       <c r="K44" t="n">
-        <v>535.1817785951596</v>
+        <v>535.1817785951598</v>
       </c>
       <c r="L44" t="n">
         <v>1004.403872472887</v>
       </c>
       <c r="M44" t="n">
-        <v>1532.653519691109</v>
+        <v>1532.65351969111</v>
       </c>
       <c r="N44" t="n">
-        <v>2048.179970075087</v>
+        <v>2048.179970075088</v>
       </c>
       <c r="O44" t="n">
-        <v>2482.733989241929</v>
+        <v>2482.73398924193</v>
       </c>
       <c r="P44" t="n">
         <v>2821.458330977218</v>
       </c>
       <c r="Q44" t="n">
-        <v>2998.922131374218</v>
+        <v>2998.922131374219</v>
       </c>
       <c r="R44" t="n">
-        <v>2998.922131374218</v>
+        <v>2957.563337872496</v>
       </c>
       <c r="S44" t="n">
-        <v>2998.922131374218</v>
+        <v>2788.211208809223</v>
       </c>
       <c r="T44" t="n">
-        <v>2777.997343951358</v>
+        <v>2788.211208809223</v>
       </c>
       <c r="U44" t="n">
-        <v>2523.174767849861</v>
+        <v>2533.388632707727</v>
       </c>
       <c r="V44" t="n">
-        <v>2186.195493745803</v>
+        <v>2196.409358603668</v>
       </c>
       <c r="W44" t="n">
-        <v>2124.418466005951</v>
+        <v>1833.874428461269</v>
       </c>
       <c r="X44" t="n">
-        <v>2124.418466005951</v>
+        <v>1833.874428461269</v>
       </c>
       <c r="Y44" t="n">
-        <v>2124.418466005951</v>
+        <v>1833.874428461269</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1395.166364011737</v>
+        <v>920.3658250849027</v>
       </c>
       <c r="C45" t="n">
-        <v>1233.462691252692</v>
+        <v>758.6621523258574</v>
       </c>
       <c r="D45" t="n">
-        <v>1094.624054242904</v>
+        <v>619.8235153160695</v>
       </c>
       <c r="E45" t="n">
-        <v>947.5960442997753</v>
+        <v>472.7955053729406</v>
       </c>
       <c r="F45" t="n">
-        <v>812.9022462496496</v>
+        <v>338.1017073228149</v>
       </c>
       <c r="G45" t="n">
-        <v>684.5934920116671</v>
+        <v>209.7929530848324</v>
       </c>
       <c r="H45" t="n">
-        <v>588.709494719286</v>
+        <v>113.9089557924513</v>
       </c>
       <c r="I45" t="n">
-        <v>534.7789815543191</v>
+        <v>59.97844262748438</v>
       </c>
       <c r="J45" t="n">
-        <v>534.7789815543191</v>
+        <v>120.2325891605905</v>
       </c>
       <c r="K45" t="n">
-        <v>534.7789815543191</v>
+        <v>120.2325891605905</v>
       </c>
       <c r="L45" t="n">
-        <v>989.92539028292</v>
+        <v>235.5684072479395</v>
       </c>
       <c r="M45" t="n">
-        <v>1579.196296298423</v>
+        <v>824.839313263442</v>
       </c>
       <c r="N45" t="n">
-        <v>2128.187468312321</v>
+        <v>1443.101369738137</v>
       </c>
       <c r="O45" t="n">
-        <v>2618.268231122674</v>
+        <v>1933.18213254849</v>
       </c>
       <c r="P45" t="n">
-        <v>2998.922131374218</v>
+        <v>2313.836032800035</v>
       </c>
       <c r="Q45" t="n">
-        <v>2998.922131374218</v>
+        <v>2524.121592447384</v>
       </c>
       <c r="R45" t="n">
-        <v>2965.19891807225</v>
+        <v>2490.398379145415</v>
       </c>
       <c r="S45" t="n">
-        <v>2820.196024082946</v>
+        <v>2345.395485156112</v>
       </c>
       <c r="T45" t="n">
-        <v>2633.202790134438</v>
+        <v>2158.402251207604</v>
       </c>
       <c r="U45" t="n">
-        <v>2414.735612583981</v>
+        <v>1939.935073657146</v>
       </c>
       <c r="V45" t="n">
-        <v>2186.339990032315</v>
+        <v>1711.53945110548</v>
       </c>
       <c r="W45" t="n">
-        <v>1945.024121265625</v>
+        <v>1470.22358233879</v>
       </c>
       <c r="X45" t="n">
-        <v>1747.107133143419</v>
+        <v>1272.306594216585</v>
       </c>
       <c r="Y45" t="n">
-        <v>1554.585806792998</v>
+        <v>1079.785267866164</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>59.97844262748436</v>
+        <v>307.3647025491294</v>
       </c>
       <c r="C46" t="n">
-        <v>59.97844262748436</v>
+        <v>307.3647025491294</v>
       </c>
       <c r="D46" t="n">
-        <v>59.97844262748436</v>
+        <v>307.3647025491294</v>
       </c>
       <c r="E46" t="n">
-        <v>59.97844262748436</v>
+        <v>307.3647025491294</v>
       </c>
       <c r="F46" t="n">
-        <v>59.97844262748436</v>
+        <v>307.3647025491294</v>
       </c>
       <c r="G46" t="n">
-        <v>59.97844262748436</v>
+        <v>138.7968546441599</v>
       </c>
       <c r="H46" t="n">
-        <v>59.97844262748436</v>
+        <v>138.7968546441599</v>
       </c>
       <c r="I46" t="n">
-        <v>59.97844262748436</v>
+        <v>59.97844262748438</v>
       </c>
       <c r="J46" t="n">
-        <v>59.97844262748436</v>
+        <v>59.97844262748438</v>
       </c>
       <c r="K46" t="n">
         <v>133.6534957960239</v>
@@ -7815,43 +7815,43 @@
         <v>285.5374870227621</v>
       </c>
       <c r="M46" t="n">
-        <v>457.5953071178318</v>
+        <v>457.5953071178319</v>
       </c>
       <c r="N46" t="n">
-        <v>628.7964342884372</v>
+        <v>628.7964342884374</v>
       </c>
       <c r="O46" t="n">
-        <v>776.0098316143881</v>
+        <v>776.0098316143882</v>
       </c>
       <c r="P46" t="n">
-        <v>880.6921489575113</v>
+        <v>880.6921489575114</v>
       </c>
       <c r="Q46" t="n">
-        <v>880.6921489575113</v>
+        <v>880.6921489575114</v>
       </c>
       <c r="R46" t="n">
-        <v>828.9053073593857</v>
+        <v>880.6921489575114</v>
       </c>
       <c r="S46" t="n">
-        <v>828.9053073593857</v>
+        <v>880.6921489575114</v>
       </c>
       <c r="T46" t="n">
-        <v>828.9053073593857</v>
+        <v>880.6921489575114</v>
       </c>
       <c r="U46" t="n">
-        <v>828.9053073593857</v>
+        <v>593.5211040317303</v>
       </c>
       <c r="V46" t="n">
-        <v>568.1700029178082</v>
+        <v>593.5211040317303</v>
       </c>
       <c r="W46" t="n">
-        <v>282.0136014352073</v>
+        <v>307.3647025491294</v>
       </c>
       <c r="X46" t="n">
-        <v>282.0136014352073</v>
+        <v>307.3647025491294</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.97844262748436</v>
+        <v>307.3647025491294</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>198.906184170195</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>480.688534012385</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8294,10 +8294,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>101.168162993945</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>78.99621350193968</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
@@ -8315,7 +8315,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>168.1954096635037</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8531,7 +8531,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>83.74785933339987</v>
+        <v>151.7051261903245</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8543,7 +8543,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>428.9079044458457</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8777,19 +8777,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>463.3096976329824</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>252.392830427143</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9014,7 +9014,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>520.7445420364326</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9023,7 +9023,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>125.4669700169886</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9242,10 +9242,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>103.0555716666667</v>
+        <v>120.4758753272113</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9260,7 +9260,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>348.9175151011075</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9479,7 +9479,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9488,7 +9488,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>348.9461472118066</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9500,7 +9500,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9716,10 +9716,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>63.79537198041257</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>150.1027609755307</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9737,7 +9737,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>60.69081784716072</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9953,7 +9953,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>63.79537198041257</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9965,16 +9965,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.6154187312809</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q27" t="n">
-        <v>60.69081784716072</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10190,10 +10190,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10202,7 +10202,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>100.0661232982877</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10427,13 +10427,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>63.79537198041257</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>474.7000156308378</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
@@ -10445,10 +10445,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q33" t="n">
-        <v>60.69081784716072</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10664,7 +10664,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>63.79537198041257</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10682,10 +10682,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>153.1976175546862</v>
+        <v>124.4719313165795</v>
       </c>
       <c r="Q36" t="n">
-        <v>60.69081784716072</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10901,10 +10901,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>44.89423463025621</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10919,10 +10919,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>344.0310088674765</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.69081784716072</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11153,13 +11153,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>43.01687724709131</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q42" t="n">
-        <v>60.69081784716072</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11375,13 +11375,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>63.79537198041258</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>44.89423463025622</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>229.0762599220053</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11396,7 +11396,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>60.69081784716074</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>332.6748057474817</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
@@ -23266,10 +23266,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>178.5137316018771</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23317,10 +23317,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>378.2098390737216</v>
@@ -23427,19 +23427,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>23.80540818138466</v>
       </c>
       <c r="R13" t="n">
-        <v>132.2699150411354</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S13" t="n">
         <v>208.5868485504649</v>
@@ -23472,13 +23472,13 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U13" t="n">
-        <v>284.3089918374816</v>
+        <v>158.4557702430231</v>
       </c>
       <c r="V13" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>228.939939463578</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>113.3937386648956</v>
       </c>
       <c r="C14" t="n">
-        <v>371.7367514611246</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>333.6094813630181</v>
@@ -23563,7 +23563,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23676,7 +23676,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J16" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3089918374816</v>
+        <v>158.4557702430231</v>
       </c>
       <c r="V16" t="n">
-        <v>193.6822536731537</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>158.7256682417886</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>369.0957251250487</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>98.65634353035534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>160.3063729978849</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -23913,7 +23913,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J19" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>140.32293915197</v>
       </c>
       <c r="S19" t="n">
-        <v>208.5868485504649</v>
+        <v>108.9146673963265</v>
       </c>
       <c r="T19" t="n">
         <v>230.1151168515673</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -23974,16 +23974,16 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>302.7530314206161</v>
       </c>
       <c r="G20" t="n">
-        <v>136.6824116423701</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>325.5814052293737</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T20" t="n">
         <v>220.4433659829895</v>
@@ -24028,13 +24028,13 @@
         <v>252.305926837283</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -24183,19 +24183,19 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U22" t="n">
-        <v>247.5075430588464</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>158.4557702430232</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -24211,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>83.60992797374428</v>
       </c>
       <c r="G23" t="n">
-        <v>145.4138926697544</v>
+        <v>411.166289397049</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>167.65860777264</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7155395486319</v>
       </c>
       <c r="U23" t="n">
         <v>252.2743503404815</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -24375,16 +24375,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>125.8582583216979</v>
       </c>
       <c r="G25" t="n">
         <v>166.8821694259198</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>154.6814885678763</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>132.2842255037309</v>
       </c>
       <c r="J25" t="n">
         <v>34.82607860242545</v>
@@ -24417,22 +24417,22 @@
         <v>205.5013217243044</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.3586235765045</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2993344765234</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>245.2405572463215</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>24.94033302143669</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>391.4559694104885</v>
       </c>
       <c r="G26" t="n">
-        <v>411.166289397049</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>321.5391202560178</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>141.1469468886811</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>40.94520556670595</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>167.65860777264</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7155395486319</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.2743503404815</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>110.4018303110512</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>150.4889240962943</v>
+        <v>37.9385813759194</v>
       </c>
       <c r="F28" t="n">
         <v>150.9558484244806</v>
@@ -24648,7 +24648,7 @@
         <v>8.979749550312995</v>
       </c>
       <c r="R28" t="n">
-        <v>132.3620546020535</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>205.5013217243044</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
         <v>219.8148072196457</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>306.0655126707019</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>207.5891052877186</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>321.5391202560178</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>141.1469468886811</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.94520556670595</v>
       </c>
       <c r="S29" t="n">
         <v>167.65860777264</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7155395486319</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.2743503404815</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,7 +24852,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.8821694259198</v>
       </c>
       <c r="H31" t="n">
         <v>154.6814885678763</v>
@@ -24861,7 +24861,7 @@
         <v>132.2842255037309</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>34.82607860242545</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>132.3620546020535</v>
       </c>
       <c r="S31" t="n">
-        <v>82.1895754595877</v>
+        <v>205.5013217243044</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.3586235765045</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2993344765234</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>13.21555407473315</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>228.939939463578</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>305.6642634109842</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>390.8378626949542</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>321.5391202560178</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>141.1469468886811</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.94520556670595</v>
       </c>
       <c r="S32" t="n">
         <v>167.65860777264</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>192.1360948224186</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.8821694259198</v>
       </c>
       <c r="H34" t="n">
-        <v>154.6814885678763</v>
+        <v>138.7090307090258</v>
       </c>
       <c r="I34" t="n">
         <v>132.2842255037309</v>
@@ -25128,19 +25128,19 @@
         <v>205.5013217243044</v>
       </c>
       <c r="T34" t="n">
-        <v>36.72017049698641</v>
+        <v>229.3586235765045</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2993344765234</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>219.8148072196457</v>
@@ -25174,7 +25174,7 @@
         <v>321.5391202560178</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>110.4618811479242</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.94520556670595</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>167.65860777264</v>
@@ -25213,16 +25213,16 @@
         <v>252.2743503404815</v>
       </c>
       <c r="V35" t="n">
-        <v>100.213531610164</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25320,7 +25320,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>37.86075227759679</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -25332,7 +25332,7 @@
         <v>154.6814885678763</v>
       </c>
       <c r="I37" t="n">
-        <v>132.2842255037309</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>34.82607860242545</v>
@@ -25356,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>8.979749550312995</v>
       </c>
       <c r="R37" t="n">
         <v>132.3620546020535</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>205.5013217243044</v>
       </c>
       <c r="T37" t="n">
-        <v>173.7604114580803</v>
+        <v>229.3586235765045</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>104.7238133114939</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.166289397049</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>321.5391202560178</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>141.1469468886811</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.94520556670595</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>167.65860777264</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7155395486319</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.2743503404815</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>155.3323967316445</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
@@ -25563,13 +25563,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.8821694259198</v>
+        <v>54.33182670554487</v>
       </c>
       <c r="H40" t="n">
-        <v>104.9337064856394</v>
+        <v>154.6814885678763</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>132.2842255037309</v>
       </c>
       <c r="J40" t="n">
         <v>34.82607860242545</v>
@@ -25596,7 +25596,7 @@
         <v>8.979749550312995</v>
       </c>
       <c r="R40" t="n">
-        <v>132.3620546020535</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>205.5013217243044</v>
@@ -25605,19 +25605,19 @@
         <v>229.3586235765045</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2993344765234</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.94520556670595</v>
       </c>
       <c r="S41" t="n">
         <v>167.65860777264</v>
@@ -25684,13 +25684,13 @@
         <v>218.7155395486319</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2743503404815</v>
+        <v>71.46747227040458</v>
       </c>
       <c r="V41" t="n">
-        <v>203.9339531437207</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>378.2098390737216</v>
@@ -25794,7 +25794,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>8.979749550312995</v>
       </c>
       <c r="R43" t="n">
-        <v>132.3620546020535</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>205.5013217243044</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>118.3293297171425</v>
+        <v>116.389596743203</v>
       </c>
       <c r="Y43" t="n">
         <v>219.8148072196457</v>
@@ -25867,7 +25867,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>344.2138979937386</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>321.5391202560178</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.94520556670597</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>167.65860777264</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7155395486319</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>297.7503233785222</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
@@ -26037,16 +26037,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.8821694259198</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>154.6814885678763</v>
       </c>
       <c r="I46" t="n">
-        <v>132.2842255037309</v>
+        <v>54.25399760722217</v>
       </c>
       <c r="J46" t="n">
-        <v>34.82607860242547</v>
+        <v>34.82607860242545</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.979749550313002</v>
+        <v>8.979749550312995</v>
       </c>
       <c r="R46" t="n">
-        <v>81.09308141990917</v>
+        <v>132.3620546020535</v>
       </c>
       <c r="S46" t="n">
         <v>205.5013217243044</v>
@@ -26079,10 +26079,10 @@
         <v>229.3586235765045</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2993344765234</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>593281.1415424597</v>
+        <v>593281.1415424598</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>645242.6285858202</v>
+        <v>645242.6285858201</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>645242.6285858203</v>
+        <v>645242.6285858201</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>645242.6285858202</v>
+        <v>645242.6285858201</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>645242.6285858202</v>
+        <v>645242.6285858201</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>645242.6285858201</v>
+        <v>645242.6285858204</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>645242.6285858203</v>
+        <v>645242.6285858201</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>645242.6285858203</v>
+        <v>645242.6285858201</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>645242.62858582</v>
+        <v>645242.6285858201</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>441383.8347841547</v>
+        <v>441383.8347841546</v>
       </c>
       <c r="C2" t="n">
-        <v>441383.8347841547</v>
+        <v>441383.8347841545</v>
       </c>
       <c r="D2" t="n">
         <v>441383.8347841546</v>
@@ -26325,34 +26325,34 @@
         <v>290329.0692654589</v>
       </c>
       <c r="F2" t="n">
-        <v>290329.0692654587</v>
+        <v>290329.0692654591</v>
       </c>
       <c r="G2" t="n">
+        <v>290329.0692654588</v>
+      </c>
+      <c r="H2" t="n">
         <v>290329.069265459</v>
       </c>
-      <c r="H2" t="n">
-        <v>290329.0692654592</v>
-      </c>
       <c r="I2" t="n">
-        <v>315757.0310100825</v>
+        <v>315757.0310100821</v>
       </c>
       <c r="J2" t="n">
+        <v>315757.0310100822</v>
+      </c>
+      <c r="K2" t="n">
+        <v>315757.031010082</v>
+      </c>
+      <c r="L2" t="n">
         <v>315757.0310100823</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>315757.0310100823</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>315757.0310100822</v>
       </c>
-      <c r="M2" t="n">
-        <v>315757.0310100825</v>
-      </c>
-      <c r="N2" t="n">
-        <v>315757.0310100821</v>
-      </c>
       <c r="O2" t="n">
-        <v>315757.0310100824</v>
+        <v>315757.0310100823</v>
       </c>
       <c r="P2" t="n">
         <v>315757.0310100822</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.141704331075744e-09</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>150427.8824816686</v>
       </c>
       <c r="C4" t="n">
-        <v>150427.8824816686</v>
+        <v>150427.8824816687</v>
       </c>
       <c r="D4" t="n">
-        <v>150427.8824816686</v>
+        <v>150427.8824816687</v>
       </c>
       <c r="E4" t="n">
-        <v>485.1228890715545</v>
+        <v>485.1228890715544</v>
       </c>
       <c r="F4" t="n">
-        <v>485.1228890715545</v>
+        <v>485.1228890715544</v>
       </c>
       <c r="G4" t="n">
         <v>485.1228890715544</v>
@@ -26459,7 +26459,7 @@
         <v>542.6010850432187</v>
       </c>
       <c r="P4" t="n">
-        <v>542.6010850432186</v>
+        <v>542.6010850432187</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>74347.80246230468</v>
       </c>
       <c r="C5" t="n">
-        <v>74347.80246230468</v>
+        <v>74347.80246230465</v>
       </c>
       <c r="D5" t="n">
-        <v>74347.80246230468</v>
+        <v>74347.80246230465</v>
       </c>
       <c r="E5" t="n">
         <v>40720.20246230468</v>
@@ -26511,7 +26511,7 @@
         <v>49795.23467992957</v>
       </c>
       <c r="P5" t="n">
-        <v>49795.23467992957</v>
+        <v>49795.23467992958</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87974.00609812379</v>
+        <v>-87974.00609812399</v>
       </c>
       <c r="C6" t="n">
-        <v>216608.1498401814</v>
+        <v>216608.1498401825</v>
       </c>
       <c r="D6" t="n">
         <v>216608.1498401813</v>
       </c>
       <c r="E6" t="n">
-        <v>249123.7439140827</v>
+        <v>242556.1454132687</v>
       </c>
       <c r="F6" t="n">
-        <v>249123.7439140825</v>
+        <v>242556.14541327</v>
       </c>
       <c r="G6" t="n">
-        <v>249123.7439140828</v>
+        <v>242556.1454132698</v>
       </c>
       <c r="H6" t="n">
-        <v>249123.743914083</v>
+        <v>242556.1454132699</v>
       </c>
       <c r="I6" t="n">
-        <v>161181.876735484</v>
+        <v>155719.8417887848</v>
       </c>
       <c r="J6" t="n">
-        <v>99098.91545308748</v>
+        <v>93636.88050638857</v>
       </c>
       <c r="K6" t="n">
-        <v>265419.1952451096</v>
+        <v>259957.1602984104</v>
       </c>
       <c r="L6" t="n">
-        <v>265419.1952451094</v>
+        <v>259957.1602984107</v>
       </c>
       <c r="M6" t="n">
-        <v>265419.1952451097</v>
+        <v>259957.1602984107</v>
       </c>
       <c r="N6" t="n">
-        <v>265419.1952451093</v>
+        <v>259957.1602984106</v>
       </c>
       <c r="O6" t="n">
-        <v>265419.1952451096</v>
+        <v>259957.1602984107</v>
       </c>
       <c r="P6" t="n">
-        <v>265419.1952451094</v>
+        <v>259957.1602984106</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>95.01032947988872</v>
+      </c>
+      <c r="C3" t="n">
+        <v>95.01032947988729</v>
+      </c>
+      <c r="D3" t="n">
+        <v>95.01032947988729</v>
+      </c>
+      <c r="E3" t="n">
         <v>95.01032947988871</v>
       </c>
-      <c r="C3" t="n">
-        <v>95.0103294798887</v>
-      </c>
-      <c r="D3" t="n">
-        <v>95.01032947988872</v>
-      </c>
-      <c r="E3" t="n">
-        <v>95.01032947988872</v>
-      </c>
       <c r="F3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="G3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="H3" t="n">
         <v>95.01032947988871</v>
@@ -26779,7 +26779,7 @@
         <v>193.1934992220852</v>
       </c>
       <c r="P3" t="n">
-        <v>193.1934992220851</v>
+        <v>193.1934992220852</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>635.6739684151827</v>
       </c>
       <c r="C4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151828</v>
       </c>
       <c r="D4" t="n">
         <v>635.6739684151827</v>
@@ -26831,7 +26831,7 @@
         <v>749.7305328435546</v>
       </c>
       <c r="P4" t="n">
-        <v>749.7305328435546</v>
+        <v>749.7305328435547</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.01032947988872</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-8.152816771697126e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16.34794093284853</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>325.5814052293737</v>
       </c>
       <c r="I2" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>220.4433659829895</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>113.0247682918129</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27542,13 +27542,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.0592210434877</v>
@@ -27560,7 +27560,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J4" t="n">
-        <v>47.34362796447565</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.7687601501903</v>
       </c>
       <c r="T4" t="n">
         <v>230.1151168515673</v>
@@ -27599,10 +27599,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>53.54561502242296</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -27627,16 +27627,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>77.93767091407761</v>
+        <v>123.596881107139</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>176.6529755334453</v>
       </c>
       <c r="T5" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>164.4197505554115</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
@@ -27794,10 +27794,10 @@
         <v>156.2556384040709</v>
       </c>
       <c r="I7" t="n">
-        <v>137.6086505120454</v>
+        <v>137.6086505120455</v>
       </c>
       <c r="J7" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447583</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138487</v>
       </c>
       <c r="R7" t="n">
-        <v>140.32293915197</v>
+        <v>140.3229391519701</v>
       </c>
       <c r="S7" t="n">
-        <v>208.5868485504649</v>
+        <v>208.586848550465</v>
       </c>
       <c r="T7" t="n">
         <v>230.1151168515673</v>
@@ -27836,13 +27836,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>64.77357369160373</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>33.7890379224109</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>91.98266481758509</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>325.5814052293738</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>156.3638580504342</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>83.50883456063805</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.0592210434877</v>
@@ -28031,10 +28031,10 @@
         <v>156.2556384040709</v>
       </c>
       <c r="I10" t="n">
-        <v>137.6086505120454</v>
+        <v>137.6086505120455</v>
       </c>
       <c r="J10" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447583</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138487</v>
       </c>
       <c r="R10" t="n">
-        <v>140.32293915197</v>
+        <v>140.3229391519701</v>
       </c>
       <c r="S10" t="n">
-        <v>208.5868485504649</v>
+        <v>208.586848550465</v>
       </c>
       <c r="T10" t="n">
         <v>230.1151168515673</v>
@@ -28076,10 +28076,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>203.6231941215005</v>
       </c>
     </row>
     <row r="11">
@@ -31044,7 +31044,7 @@
         <v>0.3819510732859845</v>
       </c>
       <c r="H2" t="n">
-        <v>3.911656429290089</v>
+        <v>3.91165642929009</v>
       </c>
       <c r="I2" t="n">
         <v>14.72516875285793</v>
@@ -31053,37 +31053,37 @@
         <v>32.41761990630636</v>
       </c>
       <c r="K2" t="n">
-        <v>48.58560883850209</v>
+        <v>48.5856088385021</v>
       </c>
       <c r="L2" t="n">
-        <v>60.27474399757805</v>
+        <v>60.27474399757806</v>
       </c>
       <c r="M2" t="n">
-        <v>67.06726639712767</v>
+        <v>67.06726639712768</v>
       </c>
       <c r="N2" t="n">
-        <v>68.15248488410148</v>
+        <v>68.1524848841015</v>
       </c>
       <c r="O2" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911398</v>
       </c>
       <c r="P2" t="n">
         <v>54.92504177736622</v>
       </c>
       <c r="Q2" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531189</v>
       </c>
       <c r="R2" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730075</v>
       </c>
       <c r="S2" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504381</v>
       </c>
       <c r="T2" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287876</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31126,7 +31126,7 @@
         <v>1.973705146365236</v>
       </c>
       <c r="I3" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689874</v>
       </c>
       <c r="J3" t="n">
         <v>19.30771233326682</v>
@@ -31135,13 +31135,13 @@
         <v>32.99995566472701</v>
       </c>
       <c r="L3" t="n">
-        <v>44.37251283869708</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>51.78062956653935</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O3" t="n">
         <v>48.62288059712758</v>
@@ -31159,7 +31159,7 @@
         <v>3.795931559880457</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133746</v>
       </c>
       <c r="U3" t="n">
         <v>0.01344485794526728</v>
@@ -31214,10 +31214,10 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L4" t="n">
-        <v>25.47211357891967</v>
+        <v>25.47211357891968</v>
       </c>
       <c r="M4" t="n">
-        <v>26.85677231511017</v>
+        <v>26.85677231511018</v>
       </c>
       <c r="N4" t="n">
         <v>26.21817829729455</v>
@@ -31229,19 +31229,19 @@
         <v>20.72159710492523</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.34655975146319</v>
+        <v>14.3465597514632</v>
       </c>
       <c r="R4" t="n">
-        <v>7.703624419795564</v>
+        <v>7.703624419795565</v>
       </c>
       <c r="S4" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884371</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106178</v>
       </c>
       <c r="U4" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497261</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3819510732859844</v>
+        <v>0.3819510732859788</v>
       </c>
       <c r="H5" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290031</v>
       </c>
       <c r="I5" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285771</v>
       </c>
       <c r="J5" t="n">
-        <v>32.41761990630635</v>
+        <v>32.41761990630587</v>
       </c>
       <c r="K5" t="n">
-        <v>48.58560883850208</v>
+        <v>48.58560883850136</v>
       </c>
       <c r="L5" t="n">
-        <v>60.27474399757804</v>
+        <v>60.27474399757715</v>
       </c>
       <c r="M5" t="n">
-        <v>67.06726639712765</v>
+        <v>67.06726639712667</v>
       </c>
       <c r="N5" t="n">
-        <v>68.15248488410147</v>
+        <v>68.15248488410046</v>
       </c>
       <c r="O5" t="n">
-        <v>64.35445889911395</v>
+        <v>64.354458899113</v>
       </c>
       <c r="P5" t="n">
-        <v>54.92504177736621</v>
+        <v>54.92504177736539</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531127</v>
       </c>
       <c r="R5" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730039</v>
       </c>
       <c r="S5" t="n">
-        <v>8.703710082504379</v>
+        <v>8.70371008250425</v>
       </c>
       <c r="T5" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309373</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287829</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680595</v>
       </c>
       <c r="H6" t="n">
-        <v>1.973705146365235</v>
+        <v>1.973705146365206</v>
       </c>
       <c r="I6" t="n">
-        <v>7.036142324689871</v>
+        <v>7.036142324689767</v>
       </c>
       <c r="J6" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>32.999955664727</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>44.37251283869708</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>51.78062956653933</v>
+        <v>51.78062956653856</v>
       </c>
       <c r="N6" t="n">
-        <v>53.15110875309359</v>
+        <v>53.1511087530928</v>
       </c>
       <c r="O6" t="n">
-        <v>48.62288059712757</v>
+        <v>48.62288059712684</v>
       </c>
       <c r="P6" t="n">
-        <v>39.02414834806976</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>26.08660970927058</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488005</v>
       </c>
       <c r="S6" t="n">
-        <v>3.795931559880456</v>
+        <v>3.7959315598804</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8237216301133744</v>
+        <v>0.8237216301133622</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01344485794526727</v>
+        <v>0.01344485794526708</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407803</v>
       </c>
       <c r="H7" t="n">
-        <v>1.523280364448053</v>
+        <v>1.52328036444803</v>
       </c>
       <c r="I7" t="n">
-        <v>5.152363441302818</v>
+        <v>5.152363441302741</v>
       </c>
       <c r="J7" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549317</v>
       </c>
       <c r="K7" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922884</v>
       </c>
       <c r="L7" t="n">
-        <v>25.47211357891967</v>
+        <v>25.47211357891929</v>
       </c>
       <c r="M7" t="n">
-        <v>26.85677231511017</v>
+        <v>26.85677231510977</v>
       </c>
       <c r="N7" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729416</v>
       </c>
       <c r="O7" t="n">
-        <v>24.21673119267721</v>
+        <v>24.21673119267685</v>
       </c>
       <c r="P7" t="n">
-        <v>20.72159710492522</v>
+        <v>20.72159710492491</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146298</v>
       </c>
       <c r="R7" t="n">
-        <v>7.703624419795562</v>
+        <v>7.703624419795449</v>
       </c>
       <c r="S7" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884325</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7320468009106176</v>
+        <v>0.7320468009106067</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009345278309497258</v>
+        <v>0.009345278309497121</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859788</v>
       </c>
       <c r="H8" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290031</v>
       </c>
       <c r="I8" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285771</v>
       </c>
       <c r="J8" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630587</v>
       </c>
       <c r="K8" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850136</v>
       </c>
       <c r="L8" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757715</v>
       </c>
       <c r="M8" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712667</v>
       </c>
       <c r="N8" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410046</v>
       </c>
       <c r="O8" t="n">
-        <v>64.35445889911398</v>
+        <v>64.354458899113</v>
       </c>
       <c r="P8" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736539</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531127</v>
       </c>
       <c r="R8" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730039</v>
       </c>
       <c r="S8" t="n">
-        <v>8.703710082504381</v>
+        <v>8.70371008250425</v>
       </c>
       <c r="T8" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309373</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287829</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680595</v>
       </c>
       <c r="H9" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365206</v>
       </c>
       <c r="I9" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689767</v>
       </c>
       <c r="J9" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>32.99995566472701</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>44.37251283869709</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>51.78062956653935</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>48.62288059712758</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39.02414834806977</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>26.08660970927058</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488005</v>
       </c>
       <c r="S9" t="n">
-        <v>3.795931559880457</v>
+        <v>3.7959315598804</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133622</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526708</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407803</v>
       </c>
       <c r="H10" t="n">
-        <v>1.523280364448053</v>
+        <v>1.52328036444803</v>
       </c>
       <c r="I10" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302741</v>
       </c>
       <c r="J10" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549317</v>
       </c>
       <c r="K10" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922884</v>
       </c>
       <c r="L10" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891929</v>
       </c>
       <c r="M10" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231510977</v>
       </c>
       <c r="N10" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729416</v>
       </c>
       <c r="O10" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267685</v>
       </c>
       <c r="P10" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492491</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146298</v>
       </c>
       <c r="R10" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795449</v>
       </c>
       <c r="S10" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884325</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106067</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497121</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>0.3819510732859845</v>
       </c>
       <c r="H11" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I11" t="n">
         <v>14.72516875285793</v>
@@ -31764,37 +31764,37 @@
         <v>32.41761990630636</v>
       </c>
       <c r="K11" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L11" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N11" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P11" t="n">
         <v>54.92504177736622</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T11" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>1.973705146365236</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J12" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>32.99995566472701</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M12" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N12" t="n">
         <v>53.1511087530936</v>
       </c>
       <c r="O12" t="n">
-        <v>48.62288059712758</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>39.02414834806977</v>
@@ -31870,7 +31870,7 @@
         <v>3.795931559880457</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U12" t="n">
         <v>0.01344485794526728</v>
@@ -31925,10 +31925,10 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L13" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M13" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N13" t="n">
         <v>26.21817829729455</v>
@@ -31940,19 +31940,19 @@
         <v>20.72159710492523</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R13" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S13" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>0.3819510732859845</v>
       </c>
       <c r="H14" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I14" t="n">
         <v>14.72516875285793</v>
@@ -32001,37 +32001,37 @@
         <v>32.41761990630636</v>
       </c>
       <c r="K14" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L14" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M14" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N14" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O14" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P14" t="n">
         <v>54.92504177736622</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R14" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S14" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T14" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>1.973705146365236</v>
       </c>
       <c r="I15" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J15" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N15" t="n">
         <v>53.1511087530936</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>26.08660970927058</v>
       </c>
       <c r="R15" t="n">
         <v>12.68836060488024</v>
@@ -32107,7 +32107,7 @@
         <v>3.795931559880457</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U15" t="n">
         <v>0.01344485794526728</v>
@@ -32162,10 +32162,10 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L16" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M16" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N16" t="n">
         <v>26.21817829729455</v>
@@ -32177,19 +32177,19 @@
         <v>20.72159710492523</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R16" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S16" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>0.3819510732859845</v>
       </c>
       <c r="H17" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I17" t="n">
         <v>14.72516875285793</v>
@@ -32238,37 +32238,37 @@
         <v>32.41761990630636</v>
       </c>
       <c r="K17" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L17" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M17" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N17" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O17" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P17" t="n">
         <v>54.92504177736622</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R17" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S17" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T17" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>1.973705146365236</v>
       </c>
       <c r="I18" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -32320,13 +32320,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O18" t="n">
         <v>48.62288059712758</v>
@@ -32344,7 +32344,7 @@
         <v>3.795931559880457</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U18" t="n">
         <v>0.01344485794526728</v>
@@ -32399,10 +32399,10 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L19" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M19" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N19" t="n">
         <v>26.21817829729455</v>
@@ -32414,19 +32414,19 @@
         <v>20.72159710492523</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R19" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S19" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32560,13 +32560,13 @@
         <v>44.37251283869708</v>
       </c>
       <c r="M21" t="n">
-        <v>51.78062956653934</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O21" t="n">
-        <v>39.83759071733505</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P21" t="n">
         <v>39.02414834806977</v>
@@ -32788,7 +32788,7 @@
         <v>14.30725442352235</v>
       </c>
       <c r="J24" t="n">
-        <v>39.26019968625413</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -32800,16 +32800,16 @@
         <v>105.2904570760364</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>108.0771821733059</v>
       </c>
       <c r="O24" t="n">
         <v>98.86950709717409</v>
       </c>
       <c r="P24" t="n">
-        <v>79.35149593519948</v>
+        <v>9.380905570757648</v>
       </c>
       <c r="Q24" t="n">
-        <v>53.04437359773177</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>25.80044504705508</v>
@@ -33025,7 +33025,7 @@
         <v>14.30725442352235</v>
       </c>
       <c r="J27" t="n">
-        <v>39.26019968625413</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>67.10193453641047</v>
@@ -33037,7 +33037,7 @@
         <v>105.2904570760364</v>
       </c>
       <c r="N27" t="n">
-        <v>108.0771821733059</v>
+        <v>62.8321331898776</v>
       </c>
       <c r="O27" t="n">
         <v>98.86950709717409</v>
@@ -33046,7 +33046,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>53.04437359773177</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>25.80044504705508</v>
@@ -33262,16 +33262,16 @@
         <v>14.30725442352235</v>
       </c>
       <c r="J30" t="n">
-        <v>39.26019968625413</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>67.10193453641047</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>90.22683187725781</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>45.53291191234064</v>
       </c>
       <c r="N30" t="n">
         <v>108.0771821733059</v>
@@ -33280,7 +33280,7 @@
         <v>98.86950709717409</v>
       </c>
       <c r="P30" t="n">
-        <v>79.35149593519948</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33499,28 +33499,28 @@
         <v>14.30725442352235</v>
       </c>
       <c r="J33" t="n">
-        <v>39.26019968625413</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>21.85688555298196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>90.22683187725781</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>105.2904570760364</v>
       </c>
       <c r="N33" t="n">
         <v>108.0771821733059</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>98.86950709717409</v>
       </c>
       <c r="P33" t="n">
-        <v>79.35149593519948</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>53.04437359773177</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>25.80044504705508</v>
@@ -33736,7 +33736,7 @@
         <v>14.30725442352235</v>
       </c>
       <c r="J36" t="n">
-        <v>39.26019968625413</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>67.10193453641047</v>
@@ -33748,16 +33748,16 @@
         <v>105.2904570760364</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>108.0771821733059</v>
       </c>
       <c r="O36" t="n">
         <v>98.86950709717409</v>
       </c>
       <c r="P36" t="n">
-        <v>79.35149593519948</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>53.04437359773177</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>25.80044504705508</v>
@@ -33979,7 +33979,7 @@
         <v>67.10193453641047</v>
       </c>
       <c r="L39" t="n">
-        <v>90.22683187725781</v>
+        <v>44.9817828938294</v>
       </c>
       <c r="M39" t="n">
         <v>105.2904570760364</v>
@@ -33991,10 +33991,10 @@
         <v>98.86950709717409</v>
       </c>
       <c r="P39" t="n">
-        <v>79.35149593519948</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>53.04437359773177</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>25.80044504705508</v>
@@ -34210,7 +34210,7 @@
         <v>14.30725442352235</v>
       </c>
       <c r="J42" t="n">
-        <v>39.26019968625413</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>67.10193453641047</v>
@@ -34222,16 +34222,16 @@
         <v>105.2904570760364</v>
       </c>
       <c r="N42" t="n">
-        <v>108.0771821733059</v>
+        <v>62.8321331898776</v>
       </c>
       <c r="O42" t="n">
         <v>98.86950709717409</v>
       </c>
       <c r="P42" t="n">
-        <v>79.35149593519948</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>53.04437359773177</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>25.80044504705508</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7766572833048642</v>
+        <v>0.7766572833048644</v>
       </c>
       <c r="H44" t="n">
-        <v>7.953941402645942</v>
+        <v>7.953941402645945</v>
       </c>
       <c r="I44" t="n">
-        <v>29.9420799146108</v>
+        <v>29.94207991461082</v>
       </c>
       <c r="J44" t="n">
-        <v>65.91781609889628</v>
+        <v>65.9178160988963</v>
       </c>
       <c r="K44" t="n">
-        <v>98.7937189011912</v>
+        <v>98.79371890119123</v>
       </c>
       <c r="L44" t="n">
         <v>122.5623442351325</v>
       </c>
       <c r="M44" t="n">
-        <v>136.3742231971053</v>
+        <v>136.3742231971054</v>
       </c>
       <c r="N44" t="n">
         <v>138.5809007032953</v>
       </c>
       <c r="O44" t="n">
-        <v>130.8580148424325</v>
+        <v>130.8580148424326</v>
       </c>
       <c r="P44" t="n">
         <v>111.6842881608437</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.87024920248821</v>
+        <v>83.87024920248824</v>
       </c>
       <c r="R44" t="n">
-        <v>48.78669807239922</v>
+        <v>48.78669807239923</v>
       </c>
       <c r="S44" t="n">
-        <v>17.69807784330961</v>
+        <v>17.69807784330962</v>
       </c>
       <c r="T44" t="n">
-        <v>3.399817257667045</v>
+        <v>3.399817257667046</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06213258266438912</v>
+        <v>0.06213258266438914</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4155482813456171</v>
+        <v>0.4155482813456172</v>
       </c>
       <c r="H45" t="n">
-        <v>4.013321559311618</v>
+        <v>4.013321559311619</v>
       </c>
       <c r="I45" t="n">
-        <v>14.30725442352234</v>
+        <v>14.30725442352235</v>
       </c>
       <c r="J45" t="n">
-        <v>39.26019968625411</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>67.10193453641045</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>90.22683187725778</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>105.2904570760364</v>
       </c>
       <c r="N45" t="n">
-        <v>38.10659180886455</v>
+        <v>108.0771821733059</v>
       </c>
       <c r="O45" t="n">
-        <v>98.86950709717406</v>
+        <v>98.86950709717409</v>
       </c>
       <c r="P45" t="n">
-        <v>79.35149593519945</v>
+        <v>79.35149593519948</v>
       </c>
       <c r="Q45" t="n">
-        <v>53.04437359773175</v>
+        <v>53.04437359773177</v>
       </c>
       <c r="R45" t="n">
-        <v>25.80044504705507</v>
+        <v>25.80044504705508</v>
       </c>
       <c r="S45" t="n">
-        <v>7.718627067976697</v>
+        <v>7.7186270679767</v>
       </c>
       <c r="T45" t="n">
-        <v>1.67495118665185</v>
+        <v>1.674951186651851</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02733870272010639</v>
+        <v>0.0273387027201064</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,46 +34517,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.348381719908678</v>
+        <v>0.3483817199086781</v>
       </c>
       <c r="H46" t="n">
-        <v>3.097430200642612</v>
+        <v>3.097430200642613</v>
       </c>
       <c r="I46" t="n">
         <v>10.47678844961734</v>
       </c>
       <c r="J46" t="n">
-        <v>24.63058759754353</v>
+        <v>24.63058759754354</v>
       </c>
       <c r="K46" t="n">
-        <v>40.47562164029913</v>
+        <v>40.47562164029914</v>
       </c>
       <c r="L46" t="n">
-        <v>51.79486043078656</v>
+        <v>51.79486043078657</v>
       </c>
       <c r="M46" t="n">
-        <v>54.61041814895759</v>
+        <v>54.6104181489576</v>
       </c>
       <c r="N46" t="n">
-        <v>53.31190446566165</v>
+        <v>53.31190446566166</v>
       </c>
       <c r="O46" t="n">
-        <v>49.24217255581934</v>
+        <v>49.24217255581936</v>
       </c>
       <c r="P46" t="n">
-        <v>42.13518546968228</v>
+        <v>42.13518546968229</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.17221838253485</v>
+        <v>29.17221838253486</v>
       </c>
       <c r="R46" t="n">
-        <v>15.66450896971201</v>
+        <v>15.66450896971202</v>
       </c>
       <c r="S46" t="n">
-        <v>6.071343246044869</v>
+        <v>6.07134324604487</v>
       </c>
       <c r="T46" t="n">
-        <v>1.488540075973442</v>
+        <v>1.488540075973443</v>
       </c>
       <c r="U46" t="n">
         <v>0.0190026392677461</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K3" t="n">
         <v>264.8085946144125</v>
       </c>
       <c r="L3" t="n">
-        <v>413.8895281620462</v>
+        <v>86.33075059904719</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N3" t="n">
-        <v>373.9733929446767</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O3" t="n">
         <v>444.7844470457648</v>
@@ -34874,7 +34874,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P4" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020692</v>
       </c>
       <c r="K5" t="n">
-        <v>291.1516412069695</v>
+        <v>291.1516412069688</v>
       </c>
       <c r="L5" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500481</v>
       </c>
       <c r="M5" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406499</v>
       </c>
       <c r="N5" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474497</v>
       </c>
       <c r="O5" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605615</v>
       </c>
       <c r="P5" t="n">
-        <v>285.3865533491372</v>
+        <v>285.3865533491363</v>
       </c>
       <c r="Q5" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001971</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>17.42030366054514</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>413.8895281620462</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>541.7133098798994</v>
+        <v>541.7133098798986</v>
       </c>
       <c r="N6" t="n">
-        <v>569.5810543320048</v>
+        <v>569.581054332004</v>
       </c>
       <c r="O6" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457641</v>
       </c>
       <c r="P6" t="n">
-        <v>344.1715415558448</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>185.4518923209819</v>
+        <v>54.46021821861115</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371713</v>
       </c>
       <c r="L7" t="n">
-        <v>127.0954261044343</v>
+        <v>127.0954261044339</v>
       </c>
       <c r="M7" t="n">
-        <v>146.0421320399604</v>
+        <v>146.04213203996</v>
       </c>
       <c r="N7" t="n">
-        <v>145.8367053170929</v>
+        <v>145.8367053170925</v>
       </c>
       <c r="O7" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762018</v>
       </c>
       <c r="P7" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324591</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020692</v>
       </c>
       <c r="K8" t="n">
-        <v>291.1516412069695</v>
+        <v>291.1516412069688</v>
       </c>
       <c r="L8" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500481</v>
       </c>
       <c r="M8" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406499</v>
       </c>
       <c r="N8" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474497</v>
       </c>
       <c r="O8" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605615</v>
       </c>
       <c r="P8" t="n">
-        <v>285.3865533491372</v>
+        <v>285.3865533491363</v>
       </c>
       <c r="Q8" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001971</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>48.64955452365779</v>
       </c>
       <c r="K9" t="n">
-        <v>264.8085946144125</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>413.8895281620462</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>541.7133098798994</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>322.1927633781374</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>444.7844470457648</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>344.1715415558448</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>185.4518923209819</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371713</v>
       </c>
       <c r="L10" t="n">
-        <v>127.0954261044343</v>
+        <v>127.0954261044339</v>
       </c>
       <c r="M10" t="n">
-        <v>146.0421320399604</v>
+        <v>146.04213203996</v>
       </c>
       <c r="N10" t="n">
-        <v>145.8367053170929</v>
+        <v>145.8367053170925</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762018</v>
       </c>
       <c r="P10" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324591</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>80.17048660913161</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
         <v>264.8085946144125</v>
@@ -35497,19 +35497,19 @@
         <v>413.8895281620462</v>
       </c>
       <c r="M12" t="n">
-        <v>399.6064246378818</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N12" t="n">
         <v>569.5810543320048</v>
       </c>
       <c r="O12" t="n">
-        <v>444.7844470457648</v>
+        <v>136.5333818160319</v>
       </c>
       <c r="P12" t="n">
         <v>344.1715415558448</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35585,7 +35585,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P13" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>80.17048660913161</v>
       </c>
       <c r="K15" t="n">
-        <v>231.8086389496855</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L15" t="n">
-        <v>369.5170153233491</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M15" t="n">
-        <v>405.2606394747927</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N15" t="n">
         <v>569.5810543320048</v>
       </c>
       <c r="O15" t="n">
-        <v>396.1615664486372</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P15" t="n">
-        <v>305.147393207775</v>
+        <v>16.61276399284526</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35822,7 +35822,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P16" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>17.42030366054463</v>
       </c>
       <c r="K18" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>369.5170153233491</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M18" t="n">
-        <v>489.93268031336</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N18" t="n">
-        <v>516.4299455789112</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O18" t="n">
         <v>444.7844470457648</v>
       </c>
       <c r="P18" t="n">
-        <v>279.0874574250339</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q18" t="n">
         <v>185.4518923209819</v>
@@ -36059,7 +36059,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P19" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
         <v>264.8085946144125</v>
@@ -36208,19 +36208,19 @@
         <v>413.8895281620462</v>
       </c>
       <c r="M21" t="n">
-        <v>541.7133098798994</v>
+        <v>233.4622446501667</v>
       </c>
       <c r="N21" t="n">
-        <v>516.4299455789112</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O21" t="n">
-        <v>435.9991571659723</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P21" t="n">
         <v>344.1715415558448</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.10659180886406</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>459.743847200607</v>
@@ -36448,13 +36448,13 @@
         <v>595.2231373893965</v>
       </c>
       <c r="N24" t="n">
-        <v>516.4299455789112</v>
+        <v>624.5071277522171</v>
       </c>
       <c r="O24" t="n">
         <v>495.0310735458114</v>
       </c>
       <c r="P24" t="n">
-        <v>384.4988891429745</v>
+        <v>314.5282987785326</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K27" t="n">
         <v>298.910573486096</v>
@@ -36685,13 +36685,13 @@
         <v>595.2231373893965</v>
       </c>
       <c r="N27" t="n">
-        <v>334.9774598368785</v>
+        <v>579.2620787687888</v>
       </c>
       <c r="O27" t="n">
         <v>495.0310735458114</v>
       </c>
       <c r="P27" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>100.1229739621189</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>298.910573486096</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>459.743847200607</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M30" t="n">
-        <v>489.93268031336</v>
+        <v>535.4655922257007</v>
       </c>
       <c r="N30" t="n">
-        <v>101.4281644038854</v>
+        <v>624.5071277522171</v>
       </c>
       <c r="O30" t="n">
         <v>495.0310735458114</v>
       </c>
       <c r="P30" t="n">
-        <v>384.4988891429745</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q30" t="n">
         <v>159.3652826117113</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K33" t="n">
-        <v>231.8086389496855</v>
+        <v>253.6655245026675</v>
       </c>
       <c r="L33" t="n">
-        <v>362.12458205969</v>
+        <v>459.743847200607</v>
       </c>
       <c r="M33" t="n">
-        <v>489.93268031336</v>
+        <v>595.2231373893965</v>
       </c>
       <c r="N33" t="n">
         <v>624.5071277522171</v>
       </c>
       <c r="O33" t="n">
-        <v>396.1615664486372</v>
+        <v>495.0310735458114</v>
       </c>
       <c r="P33" t="n">
-        <v>384.4988891429745</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>595.2231373893965</v>
       </c>
       <c r="N36" t="n">
-        <v>516.4299455789112</v>
+        <v>624.5071277522171</v>
       </c>
       <c r="O36" t="n">
         <v>495.0310735458114</v>
       </c>
       <c r="P36" t="n">
-        <v>123.6949074657424</v>
+        <v>15.61772529243622</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>298.910573486096</v>
       </c>
       <c r="L39" t="n">
-        <v>459.743847200607</v>
+        <v>414.4987982171785</v>
       </c>
       <c r="M39" t="n">
         <v>595.2231373893965</v>
@@ -37639,7 +37639,7 @@
         <v>495.0310735458114</v>
       </c>
       <c r="P39" t="n">
-        <v>314.5282987785326</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>100.1229739621189</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
         <v>298.910573486096</v>
@@ -37870,13 +37870,13 @@
         <v>595.2231373893965</v>
       </c>
       <c r="N42" t="n">
-        <v>624.5071277522171</v>
+        <v>579.2620787687888</v>
       </c>
       <c r="O42" t="n">
-        <v>26.0269357331543</v>
+        <v>495.0310735458114</v>
       </c>
       <c r="P42" t="n">
-        <v>384.4988891429745</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>341.3597512696587</v>
       </c>
       <c r="L44" t="n">
-        <v>473.9617109876034</v>
+        <v>473.9617109876035</v>
       </c>
       <c r="M44" t="n">
         <v>533.5855022406286</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>459.7438472006069</v>
+        <v>116.5008263508576</v>
       </c>
       <c r="M45" t="n">
         <v>595.2231373893965</v>
       </c>
       <c r="N45" t="n">
-        <v>554.5365373877758</v>
+        <v>624.5071277522171</v>
       </c>
       <c r="O45" t="n">
-        <v>495.0310735458113</v>
+        <v>495.0310735458114</v>
       </c>
       <c r="P45" t="n">
         <v>384.4988891429745</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>212.4096562094431</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
